--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_18_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_18_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1358331.321067368</v>
+        <v>-1359071.783888091</v>
       </c>
     </row>
     <row r="7">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>251.017240630768</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>222.9664405879704</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>275.1594447089988</v>
+        <v>59.63861193622171</v>
       </c>
       <c r="G11" t="n">
-        <v>283.084518104593</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>202.6210018711095</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>59.42064602642671</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.87283976874605</v>
+        <v>65.87283976874613</v>
       </c>
       <c r="T11" t="n">
-        <v>89.18341408247065</v>
+        <v>89.18341408247073</v>
       </c>
       <c r="U11" t="n">
-        <v>45.4681002637369</v>
+        <v>119.5889224048975</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>196.0356574374223</v>
       </c>
       <c r="W11" t="n">
-        <v>217.5243676847003</v>
+        <v>217.5243676847004</v>
       </c>
       <c r="X11" t="n">
-        <v>238.0144996457564</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>254.521337623341</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>34.81658261715475</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>40.99189795560315</v>
       </c>
       <c r="D12" t="n">
-        <v>99.74450411593021</v>
+        <v>15.72846453192616</v>
       </c>
       <c r="E12" t="n">
-        <v>25.92847942268827</v>
+        <v>25.92847942268835</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>13.35261136067129</v>
       </c>
       <c r="G12" t="n">
-        <v>5.358526637115014</v>
+        <v>5.358526637115099</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>83.49414262488439</v>
       </c>
       <c r="S12" t="n">
-        <v>34.981352946227</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T12" t="n">
-        <v>67.36632966027153</v>
+        <v>99.82179789167849</v>
       </c>
       <c r="U12" t="n">
-        <v>94.20712384475011</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V12" t="n">
-        <v>101.0839861167126</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>74.0563841707648</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>73.96609474459169</v>
+        <v>73.96609474459177</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.11537914922462</v>
+        <v>48.11537914922471</v>
       </c>
       <c r="C13" t="n">
-        <v>35.53022006591516</v>
+        <v>35.53022006591524</v>
       </c>
       <c r="D13" t="n">
-        <v>16.89887198549968</v>
+        <v>16.89887198549977</v>
       </c>
       <c r="E13" t="n">
-        <v>14.7173616138565</v>
+        <v>14.71736161385658</v>
       </c>
       <c r="F13" t="n">
-        <v>13.70444699021857</v>
+        <v>13.70444699021866</v>
       </c>
       <c r="G13" t="n">
-        <v>36.04936959028123</v>
+        <v>36.04936959028132</v>
       </c>
       <c r="H13" t="n">
-        <v>28.51003926304849</v>
+        <v>28.51003926304858</v>
       </c>
       <c r="I13" t="n">
-        <v>16.96724755892989</v>
+        <v>16.96724755892997</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.45957938437358</v>
+        <v>35.45957938437366</v>
       </c>
       <c r="S13" t="n">
-        <v>88.37870840529484</v>
+        <v>88.37870840529493</v>
       </c>
       <c r="T13" t="n">
-        <v>95.26758743494628</v>
+        <v>95.26758743494636</v>
       </c>
       <c r="U13" t="n">
-        <v>154.5901551200256</v>
+        <v>154.5901551200257</v>
       </c>
       <c r="V13" t="n">
-        <v>120.4210422911153</v>
+        <v>120.4210422911154</v>
       </c>
       <c r="W13" t="n">
-        <v>154.8063973038783</v>
+        <v>154.8063973038784</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99305435632448</v>
+        <v>93.99305435632456</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.86805231938212</v>
+        <v>86.8680523193822</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>251.0172406307681</v>
+        <v>14.70370846217642</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>233.556290738295</v>
       </c>
       <c r="D14" t="n">
-        <v>222.9664405879705</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>250.2137690395492</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>269.6426693467259</v>
+        <v>283.0845181045931</v>
       </c>
       <c r="H14" t="n">
-        <v>202.6210018711097</v>
+        <v>202.6210018711096</v>
       </c>
       <c r="I14" t="n">
-        <v>59.42064602642688</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.87283976874622</v>
+        <v>65.87283976874613</v>
       </c>
       <c r="T14" t="n">
-        <v>89.18341408247082</v>
+        <v>89.18341408247073</v>
       </c>
       <c r="U14" t="n">
-        <v>119.5889224048976</v>
+        <v>119.5889224048975</v>
       </c>
       <c r="V14" t="n">
-        <v>196.0356574374224</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>217.5243676847004</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.81658261715484</v>
+        <v>34.81658261715475</v>
       </c>
       <c r="C15" t="n">
-        <v>40.99189795560324</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>15.72846453192625</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>25.92847942268844</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>13.35261136067137</v>
+        <v>13.35261136067129</v>
       </c>
       <c r="G15" t="n">
-        <v>5.358526637115184</v>
+        <v>5.358526637115099</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>83.49414262488439</v>
       </c>
       <c r="S15" t="n">
-        <v>34.98135294622717</v>
+        <v>34.98135294622708</v>
       </c>
       <c r="T15" t="n">
-        <v>67.3663296602717</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U15" t="n">
         <v>225.9237248774628</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>101.0839861167127</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>152.433850359614</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>74.05638417076489</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.9821343285945</v>
+        <v>73.96609474459177</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.11537914922479</v>
+        <v>48.11537914922471</v>
       </c>
       <c r="C16" t="n">
-        <v>35.53022006591533</v>
+        <v>35.53022006591524</v>
       </c>
       <c r="D16" t="n">
-        <v>16.89887198549985</v>
+        <v>16.89887198549977</v>
       </c>
       <c r="E16" t="n">
-        <v>14.71736161385667</v>
+        <v>14.71736161385658</v>
       </c>
       <c r="F16" t="n">
-        <v>13.70444699021874</v>
+        <v>13.70444699021866</v>
       </c>
       <c r="G16" t="n">
-        <v>36.0493695902814</v>
+        <v>36.04936959028132</v>
       </c>
       <c r="H16" t="n">
-        <v>28.51003926304866</v>
+        <v>28.51003926304858</v>
       </c>
       <c r="I16" t="n">
-        <v>16.96724755893006</v>
+        <v>16.96724755892997</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.45957938437375</v>
+        <v>35.45957938437366</v>
       </c>
       <c r="S16" t="n">
-        <v>88.37870840529501</v>
+        <v>88.37870840529493</v>
       </c>
       <c r="T16" t="n">
-        <v>95.26758743494645</v>
+        <v>95.26758743494636</v>
       </c>
       <c r="U16" t="n">
         <v>154.5901551200257</v>
       </c>
       <c r="V16" t="n">
-        <v>120.4210422911155</v>
+        <v>120.4210422911154</v>
       </c>
       <c r="W16" t="n">
-        <v>154.8063973038785</v>
+        <v>154.8063973038784</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99305435632465</v>
+        <v>93.99305435632456</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.86805231938229</v>
+        <v>86.8680523193822</v>
       </c>
     </row>
     <row r="17">
@@ -1853,13 +1853,13 @@
         <v>144.5508808461439</v>
       </c>
       <c r="F17" t="n">
-        <v>169.4965565155936</v>
+        <v>169.4965565155935</v>
       </c>
       <c r="G17" t="n">
         <v>177.4216299111878</v>
       </c>
       <c r="H17" t="n">
-        <v>96.95811367770432</v>
+        <v>96.95811367770429</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.92603421149228</v>
+        <v>13.92603421149224</v>
       </c>
       <c r="V17" t="n">
-        <v>90.37276924401704</v>
+        <v>90.37276924401701</v>
       </c>
       <c r="W17" t="n">
         <v>111.8614794912951</v>
       </c>
       <c r="X17" t="n">
-        <v>132.3516114523512</v>
+        <v>132.3516114523511</v>
       </c>
       <c r="Y17" t="n">
         <v>148.8584494299357</v>
@@ -1923,19 +1923,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>86.52247306058185</v>
       </c>
       <c r="F18" t="n">
-        <v>92.60376310743702</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>83.49414262488439</v>
       </c>
       <c r="S18" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>14.31549393480174</v>
+        <v>14.31549393480171</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>48.92726692662039</v>
+        <v>48.92726692662036</v>
       </c>
       <c r="V19" t="n">
-        <v>14.75815409771013</v>
+        <v>14.7581540977101</v>
       </c>
       <c r="W19" t="n">
-        <v>49.14350911047313</v>
+        <v>49.1435091104731</v>
       </c>
       <c r="X19" t="n">
         <v>180.4328844084324</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>145.3543524373627</v>
+        <v>145.3543524373626</v>
       </c>
       <c r="C20" t="n">
-        <v>127.8934025448897</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D20" t="n">
-        <v>117.3035523945651</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E20" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461438</v>
       </c>
       <c r="F20" t="n">
         <v>169.4965565155935</v>
       </c>
       <c r="G20" t="n">
-        <v>177.4216299111878</v>
+        <v>177.4216299111877</v>
       </c>
       <c r="H20" t="n">
-        <v>96.95811367770429</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.92603421149225</v>
+        <v>13.92603421149219</v>
       </c>
       <c r="V20" t="n">
-        <v>90.37276924401701</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W20" t="n">
         <v>111.8614794912951</v>
@@ -2147,7 +2147,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y20" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299356</v>
       </c>
     </row>
     <row r="21">
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>27.68299939573671</v>
       </c>
       <c r="G21" t="n">
-        <v>51.75956313916399</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>83.49414262488439</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>14.31549393480165</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>167.1761804170862</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>13.25670399134624</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>48.92726692662036</v>
+        <v>48.92726692662031</v>
       </c>
       <c r="V22" t="n">
-        <v>14.7581540977101</v>
+        <v>14.75815409771005</v>
       </c>
       <c r="W22" t="n">
-        <v>49.1435091104731</v>
+        <v>229.5763935189057</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>74.45794424828904</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>83.49414262488439</v>
       </c>
       <c r="S24" t="n">
         <v>166.6979539789397</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>123.8329086212061</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>14.31549393480171</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>180.4328844084325</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>48.92726692662036</v>
@@ -2555,10 +2555,10 @@
         <v>232.6897813850286</v>
       </c>
       <c r="C26" t="n">
-        <v>215.2288314925556</v>
+        <v>215.2288314925555</v>
       </c>
       <c r="D26" t="n">
-        <v>204.638981342231</v>
+        <v>204.6389813422309</v>
       </c>
       <c r="E26" t="n">
         <v>231.8863097938098</v>
@@ -2573,7 +2573,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I26" t="n">
-        <v>41.0931867806874</v>
+        <v>41.09318678068738</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.54538052300675</v>
+        <v>47.54538052300671</v>
       </c>
       <c r="T26" t="n">
-        <v>70.85595483673134</v>
+        <v>70.85595483673131</v>
       </c>
       <c r="U26" t="n">
-        <v>101.2614631591582</v>
+        <v>101.2614631591581</v>
       </c>
       <c r="V26" t="n">
         <v>177.7081981916829</v>
@@ -2618,7 +2618,7 @@
         <v>199.196908438961</v>
       </c>
       <c r="X26" t="n">
-        <v>219.6870404000171</v>
+        <v>219.687040400017</v>
       </c>
       <c r="Y26" t="n">
         <v>236.1938783776016</v>
@@ -2640,10 +2640,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>7.601020176948936</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,16 +2682,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>16.65389370048769</v>
+        <v>165.5725458806683</v>
       </c>
       <c r="T27" t="n">
-        <v>49.03887041453222</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U27" t="n">
-        <v>159.8851340659237</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>82.75652687097326</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.78791990348532</v>
+        <v>29.78791990348529</v>
       </c>
       <c r="C28" t="n">
-        <v>17.20276082017585</v>
+        <v>17.20276082017583</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>17.72191034454193</v>
+        <v>17.7219103445419</v>
       </c>
       <c r="H28" t="n">
-        <v>10.18258001730919</v>
+        <v>10.18258001730916</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.13212013863427</v>
+        <v>17.13212013863424</v>
       </c>
       <c r="S28" t="n">
-        <v>70.05124915955554</v>
+        <v>70.05124915955551</v>
       </c>
       <c r="T28" t="n">
-        <v>76.94012818920697</v>
+        <v>76.94012818920694</v>
       </c>
       <c r="U28" t="n">
-        <v>136.2626958742863</v>
+        <v>136.2626958742862</v>
       </c>
       <c r="V28" t="n">
         <v>102.093583045376</v>
@@ -2776,10 +2776,10 @@
         <v>136.478938058139</v>
       </c>
       <c r="X28" t="n">
-        <v>75.66559511058517</v>
+        <v>75.66559511058514</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.54059307364281</v>
+        <v>68.54059307364278</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.54538052300672</v>
+        <v>47.54538052300671</v>
       </c>
       <c r="T29" t="n">
         <v>70.85595483673131</v>
@@ -2871,13 +2871,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>22.66443870986373</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>142.9815445215994</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>7.601020176948936</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.49414262488439</v>
       </c>
       <c r="S30" t="n">
-        <v>16.65389370048766</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T30" t="n">
-        <v>128.069491996377</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U30" t="n">
         <v>225.9237248774628</v>
@@ -3026,19 +3026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>232.6897813850286</v>
+        <v>232.6897813850285</v>
       </c>
       <c r="C32" t="n">
-        <v>215.2288314925556</v>
+        <v>215.2288314925555</v>
       </c>
       <c r="D32" t="n">
-        <v>204.638981342231</v>
+        <v>204.6389813422309</v>
       </c>
       <c r="E32" t="n">
-        <v>231.8863097938098</v>
+        <v>231.8863097938097</v>
       </c>
       <c r="F32" t="n">
-        <v>256.8319854632595</v>
+        <v>256.8319854632594</v>
       </c>
       <c r="G32" t="n">
         <v>264.7570588588537</v>
@@ -3047,7 +3047,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I32" t="n">
-        <v>41.0931867806874</v>
+        <v>41.09318678068735</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.54538052300674</v>
+        <v>47.54538052300668</v>
       </c>
       <c r="T32" t="n">
-        <v>70.85595483673134</v>
+        <v>70.85595483673129</v>
       </c>
       <c r="U32" t="n">
-        <v>101.2614631591582</v>
+        <v>101.2614631591581</v>
       </c>
       <c r="V32" t="n">
         <v>177.7081981916829</v>
@@ -3092,10 +3092,10 @@
         <v>199.196908438961</v>
       </c>
       <c r="X32" t="n">
-        <v>219.6870404000171</v>
+        <v>219.687040400017</v>
       </c>
       <c r="Y32" t="n">
-        <v>236.1938783776016</v>
+        <v>236.1938783776015</v>
       </c>
     </row>
     <row r="33">
@@ -3105,28 +3105,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>16.4891233714153</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>7.601020176948907</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>51.28195825436244</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,19 +3153,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>83.49414262488439</v>
       </c>
       <c r="S33" t="n">
-        <v>100.6593631674006</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T33" t="n">
-        <v>49.03887041453222</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U33" t="n">
-        <v>75.87966459901081</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>82.75652687097323</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3174,7 +3174,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>55.63863549885232</v>
       </c>
     </row>
     <row r="34">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.78791990348532</v>
+        <v>29.78791990348526</v>
       </c>
       <c r="C34" t="n">
-        <v>17.20276082017585</v>
+        <v>17.2027608201758</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>17.72191034454193</v>
+        <v>17.72191034454187</v>
       </c>
       <c r="H34" t="n">
-        <v>10.18258001730919</v>
+        <v>10.18258001730913</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.13212013863427</v>
+        <v>17.13212013863421</v>
       </c>
       <c r="S34" t="n">
-        <v>70.05124915955554</v>
+        <v>70.05124915955548</v>
       </c>
       <c r="T34" t="n">
-        <v>76.94012818920697</v>
+        <v>76.94012818920692</v>
       </c>
       <c r="U34" t="n">
-        <v>136.2626958742863</v>
+        <v>136.2626958742862</v>
       </c>
       <c r="V34" t="n">
         <v>102.093583045376</v>
@@ -3250,10 +3250,10 @@
         <v>136.478938058139</v>
       </c>
       <c r="X34" t="n">
-        <v>75.66559511058517</v>
+        <v>75.66559511058512</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.54059307364281</v>
+        <v>68.54059307364275</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>145.3543524373627</v>
+        <v>145.3543524373628</v>
       </c>
       <c r="C35" t="n">
         <v>127.8934025448897</v>
@@ -3272,16 +3272,16 @@
         <v>117.3035523945651</v>
       </c>
       <c r="E35" t="n">
-        <v>144.5508808461439</v>
+        <v>144.550880846144</v>
       </c>
       <c r="F35" t="n">
         <v>169.4965565155936</v>
       </c>
       <c r="G35" t="n">
-        <v>177.4216299111878</v>
+        <v>177.4216299111879</v>
       </c>
       <c r="H35" t="n">
-        <v>96.95811367770432</v>
+        <v>96.95811367770438</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.92603421149228</v>
+        <v>13.92603421149233</v>
       </c>
       <c r="V35" t="n">
-        <v>90.37276924401704</v>
+        <v>90.37276924401709</v>
       </c>
       <c r="W35" t="n">
-        <v>111.8614794912951</v>
+        <v>111.8614794912952</v>
       </c>
       <c r="X35" t="n">
         <v>132.3516114523512</v>
       </c>
       <c r="Y35" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299358</v>
       </c>
     </row>
     <row r="36">
@@ -3348,7 +3348,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3357,13 +3357,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>23.79712696322987</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>53.00106698242222</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3408,10 +3408,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3472,25 +3472,25 @@
         <v>167.1761804170862</v>
       </c>
       <c r="S37" t="n">
-        <v>13.25670399134616</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>48.92726692662039</v>
+        <v>48.92726692662045</v>
       </c>
       <c r="V37" t="n">
-        <v>14.75815409771013</v>
+        <v>14.75815409771019</v>
       </c>
       <c r="W37" t="n">
-        <v>49.14350911047313</v>
+        <v>49.14350911047319</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>13.25670399134597</v>
       </c>
     </row>
     <row r="38">
@@ -3585,19 +3585,19 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>17.02164353847798</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T39" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U39" t="n">
-        <v>78.60035732364254</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>14.31549393480171</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>13.18606330980461</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>48.92726692662036</v>
+        <v>229.3601513350528</v>
       </c>
       <c r="V40" t="n">
         <v>14.7581540977101</v>
@@ -3740,10 +3740,10 @@
         <v>161.8338265482973</v>
       </c>
       <c r="C41" t="n">
-        <v>144.3728766558243</v>
+        <v>144.3728766558242</v>
       </c>
       <c r="D41" t="n">
-        <v>133.7830265054997</v>
+        <v>133.7830265054996</v>
       </c>
       <c r="E41" t="n">
         <v>161.0303549570785</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.40550832242685</v>
+        <v>30.40550832242681</v>
       </c>
       <c r="V41" t="n">
         <v>106.8522433549516</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3831,13 +3831,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H42" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>83.49414262488439</v>
       </c>
       <c r="S42" t="n">
-        <v>57.42551791918701</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T42" t="n">
         <v>199.0829306929842</v>
@@ -3876,7 +3876,7 @@
         <v>225.9237248774628</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>53.60876510856912</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3885,7 +3885,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>120.1006484492992</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.084173352475652</v>
+        <v>6.084173352475624</v>
       </c>
       <c r="U43" t="n">
-        <v>65.40674103755497</v>
+        <v>185.5073894868543</v>
       </c>
       <c r="V43" t="n">
-        <v>31.23762820864471</v>
+        <v>31.23762820864468</v>
       </c>
       <c r="W43" t="n">
-        <v>65.62298322140771</v>
+        <v>65.62298322140768</v>
       </c>
       <c r="X43" t="n">
-        <v>4.809640273853859</v>
+        <v>4.80964027385383</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>60.44165322115508</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4113,13 +4113,13 @@
         <v>225.9237248774628</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>11.90057203424195</v>
       </c>
       <c r="W45" t="n">
-        <v>76.10959135518583</v>
+        <v>30.79496804573628</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>120.1006484492993</v>
       </c>
       <c r="T46" t="n">
         <v>6.084173352475624</v>
@@ -4192,7 +4192,7 @@
         <v>65.40674103755494</v>
       </c>
       <c r="V46" t="n">
-        <v>151.338276657944</v>
+        <v>31.23762820864468</v>
       </c>
       <c r="W46" t="n">
         <v>65.62298322140768</v>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>859.0052310245684</v>
+        <v>315.8935560882692</v>
       </c>
       <c r="C11" t="n">
-        <v>859.0052310245684</v>
+        <v>315.8935560882692</v>
       </c>
       <c r="D11" t="n">
-        <v>859.0052310245684</v>
+        <v>90.67492923173359</v>
       </c>
       <c r="E11" t="n">
-        <v>859.0052310245684</v>
+        <v>90.67492923173359</v>
       </c>
       <c r="F11" t="n">
-        <v>581.0663979851756</v>
+        <v>30.433907073934</v>
       </c>
       <c r="G11" t="n">
-        <v>295.1224403037686</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H11" t="n">
-        <v>90.4547616460822</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I11" t="n">
         <v>30.433907073934</v>
       </c>
       <c r="J11" t="n">
-        <v>60.75260108020947</v>
+        <v>60.75260108020957</v>
       </c>
       <c r="K11" t="n">
-        <v>226.9372683326555</v>
+        <v>226.9372683326557</v>
       </c>
       <c r="L11" t="n">
-        <v>485.3806706550283</v>
+        <v>485.3806706550284</v>
       </c>
       <c r="M11" t="n">
-        <v>789.5552979241023</v>
+        <v>789.5552979241024</v>
       </c>
       <c r="N11" t="n">
         <v>1084.019791121359</v>
@@ -5072,19 +5072,19 @@
         <v>1365.072875059107</v>
       </c>
       <c r="U11" t="n">
-        <v>1319.145501055333</v>
+        <v>1244.275983741029</v>
       </c>
       <c r="V11" t="n">
-        <v>1319.145501055333</v>
+        <v>1046.260168147673</v>
       </c>
       <c r="W11" t="n">
-        <v>1099.423917535433</v>
+        <v>826.5385846277733</v>
       </c>
       <c r="X11" t="n">
-        <v>859.0052310245684</v>
+        <v>826.5385846277733</v>
       </c>
       <c r="Y11" t="n">
-        <v>859.0052310245684</v>
+        <v>569.4463244021763</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>564.7422416573172</v>
+        <v>132.817725162827</v>
       </c>
       <c r="C12" t="n">
-        <v>390.2892123761902</v>
+        <v>91.41176763191471</v>
       </c>
       <c r="D12" t="n">
-        <v>289.5371880166647</v>
+        <v>75.52442972087819</v>
       </c>
       <c r="E12" t="n">
-        <v>263.346804761424</v>
+        <v>49.33404646563742</v>
       </c>
       <c r="F12" t="n">
-        <v>116.812246788309</v>
+        <v>35.84656024273713</v>
       </c>
       <c r="G12" t="n">
-        <v>111.399593619506</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H12" t="n">
-        <v>111.399593619506</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I12" t="n">
         <v>30.433907073934</v>
@@ -5124,16 +5124,16 @@
         <v>223.0613211674322</v>
       </c>
       <c r="L12" t="n">
-        <v>510.7163377867618</v>
+        <v>431.7629153737466</v>
       </c>
       <c r="M12" t="n">
-        <v>887.335937826695</v>
+        <v>808.3825154136798</v>
       </c>
       <c r="N12" t="n">
-        <v>1106.412173483915</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="O12" t="n">
-        <v>1418.383708616427</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P12" t="n">
         <v>1418.383708616427</v>
@@ -5145,25 +5145,25 @@
         <v>1437.357835893786</v>
       </c>
       <c r="S12" t="n">
-        <v>1402.023135948103</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="T12" t="n">
-        <v>1333.976338311465</v>
+        <v>1168.145965317404</v>
       </c>
       <c r="U12" t="n">
-        <v>1238.817627357172</v>
+        <v>939.9401826128967</v>
       </c>
       <c r="V12" t="n">
-        <v>1136.712590875644</v>
+        <v>704.7880743811539</v>
       </c>
       <c r="W12" t="n">
-        <v>882.4752341474423</v>
+        <v>450.5507176529523</v>
       </c>
       <c r="X12" t="n">
-        <v>807.6708056921243</v>
+        <v>242.6992174474195</v>
       </c>
       <c r="Y12" t="n">
-        <v>732.9575786773852</v>
+        <v>167.9859904326803</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.4516414858022</v>
+        <v>194.4516414858028</v>
       </c>
       <c r="C13" t="n">
-        <v>158.5625303081102</v>
+        <v>158.5625303081107</v>
       </c>
       <c r="D13" t="n">
-        <v>141.4929626459893</v>
+        <v>141.4929626459897</v>
       </c>
       <c r="E13" t="n">
-        <v>126.626940813811</v>
+        <v>126.6269408138113</v>
       </c>
       <c r="F13" t="n">
-        <v>112.7840650661154</v>
+        <v>112.7840650661157</v>
       </c>
       <c r="G13" t="n">
-        <v>76.37056042946772</v>
+        <v>76.37056042946789</v>
       </c>
       <c r="H13" t="n">
-        <v>47.57254097184298</v>
+        <v>47.57254097184306</v>
       </c>
       <c r="I13" t="n">
         <v>30.433907073934</v>
       </c>
       <c r="J13" t="n">
-        <v>84.15679020220486</v>
+        <v>84.15679020220477</v>
       </c>
       <c r="K13" t="n">
-        <v>87.99049804774806</v>
+        <v>87.99049804774798</v>
       </c>
       <c r="L13" t="n">
-        <v>263.9114356143786</v>
+        <v>278.822193815976</v>
       </c>
       <c r="M13" t="n">
-        <v>468.4173394595703</v>
+        <v>483.3280976611676</v>
       </c>
       <c r="N13" t="n">
-        <v>676.5957735341108</v>
+        <v>676.5957735341121</v>
       </c>
       <c r="O13" t="n">
-        <v>862.8204075624633</v>
+        <v>862.8204075624645</v>
       </c>
       <c r="P13" t="n">
-        <v>1017.467262206713</v>
+        <v>1017.467262206714</v>
       </c>
       <c r="Q13" t="n">
-        <v>1081.219273571222</v>
+        <v>1081.219273571223</v>
       </c>
       <c r="R13" t="n">
-        <v>1045.401516617309</v>
+        <v>1045.40151661731</v>
       </c>
       <c r="S13" t="n">
-        <v>956.130093985698</v>
+        <v>956.1300939856991</v>
       </c>
       <c r="T13" t="n">
-        <v>859.9002076877724</v>
+        <v>859.9002076877734</v>
       </c>
       <c r="U13" t="n">
-        <v>703.7485358493627</v>
+        <v>703.7485358493637</v>
       </c>
       <c r="V13" t="n">
-        <v>582.1111193936907</v>
+        <v>582.1111193936916</v>
       </c>
       <c r="W13" t="n">
-        <v>425.7410211069449</v>
+        <v>425.7410211069458</v>
       </c>
       <c r="X13" t="n">
-        <v>330.7985419591424</v>
+        <v>330.7985419591432</v>
       </c>
       <c r="Y13" t="n">
-        <v>243.0530345658271</v>
+        <v>243.0530345658278</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>792.7073998337657</v>
+        <v>1009.702169451254</v>
       </c>
       <c r="C14" t="n">
-        <v>792.7073998337657</v>
+        <v>773.7867242610573</v>
       </c>
       <c r="D14" t="n">
-        <v>567.4887729772298</v>
+        <v>773.7867242610573</v>
       </c>
       <c r="E14" t="n">
-        <v>567.4887729772298</v>
+        <v>521.0455434130278</v>
       </c>
       <c r="F14" t="n">
-        <v>567.4887729772298</v>
+        <v>521.0455434130278</v>
       </c>
       <c r="G14" t="n">
-        <v>295.1224403037689</v>
+        <v>235.1015857316205</v>
       </c>
       <c r="H14" t="n">
-        <v>90.45476164608237</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I14" t="n">
         <v>30.433907073934</v>
       </c>
       <c r="J14" t="n">
-        <v>60.75260108020947</v>
+        <v>60.75260108020944</v>
       </c>
       <c r="K14" t="n">
         <v>226.9372683326555</v>
@@ -5312,16 +5312,16 @@
         <v>1244.275983741029</v>
       </c>
       <c r="V14" t="n">
-        <v>1046.260168147673</v>
+        <v>1244.275983741029</v>
       </c>
       <c r="W14" t="n">
-        <v>1046.260168147673</v>
+        <v>1024.55440022113</v>
       </c>
       <c r="X14" t="n">
-        <v>1046.260168147673</v>
+        <v>1024.55440022113</v>
       </c>
       <c r="Y14" t="n">
-        <v>1046.260168147673</v>
+        <v>1024.55440022113</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>213.7834117083994</v>
+        <v>531.9589404134712</v>
       </c>
       <c r="C15" t="n">
-        <v>172.377454177487</v>
+        <v>357.5059111323442</v>
       </c>
       <c r="D15" t="n">
-        <v>156.4901162664504</v>
+        <v>208.5715014710929</v>
       </c>
       <c r="E15" t="n">
-        <v>130.2997330112096</v>
+        <v>49.33404646563742</v>
       </c>
       <c r="F15" t="n">
-        <v>116.8122467883092</v>
+        <v>35.84656024273713</v>
       </c>
       <c r="G15" t="n">
-        <v>111.399593619506</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H15" t="n">
-        <v>111.399593619506</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I15" t="n">
         <v>30.433907073934</v>
@@ -5364,10 +5364,10 @@
         <v>510.7163377867618</v>
       </c>
       <c r="M15" t="n">
-        <v>599.7226253614408</v>
+        <v>887.335937826695</v>
       </c>
       <c r="N15" t="n">
-        <v>976.3422254013741</v>
+        <v>1263.955537866628</v>
       </c>
       <c r="O15" t="n">
         <v>1288.313760533886</v>
@@ -5385,22 +5385,22 @@
         <v>1402.023135948102</v>
       </c>
       <c r="T15" t="n">
-        <v>1333.976338311464</v>
+        <v>1200.92926656125</v>
       </c>
       <c r="U15" t="n">
-        <v>1105.770555606957</v>
+        <v>972.7234838567418</v>
       </c>
       <c r="V15" t="n">
         <v>870.6184473752139</v>
       </c>
       <c r="W15" t="n">
-        <v>616.3810906470123</v>
+        <v>716.6448611533816</v>
       </c>
       <c r="X15" t="n">
-        <v>408.5295904414795</v>
+        <v>641.8404326980635</v>
       </c>
       <c r="Y15" t="n">
-        <v>248.9516769782528</v>
+        <v>567.1272056833244</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.4516414858034</v>
+        <v>194.4516414858028</v>
       </c>
       <c r="C16" t="n">
-        <v>158.5625303081112</v>
+        <v>158.5625303081107</v>
       </c>
       <c r="D16" t="n">
-        <v>141.4929626459901</v>
+        <v>141.4929626459897</v>
       </c>
       <c r="E16" t="n">
-        <v>126.6269408138116</v>
+        <v>126.6269408138113</v>
       </c>
       <c r="F16" t="n">
-        <v>112.7840650661159</v>
+        <v>112.7840650661157</v>
       </c>
       <c r="G16" t="n">
-        <v>76.37056042946807</v>
+        <v>76.37056042946789</v>
       </c>
       <c r="H16" t="n">
-        <v>47.57254097184315</v>
+        <v>47.57254097184306</v>
       </c>
       <c r="I16" t="n">
         <v>30.433907073934</v>
       </c>
       <c r="J16" t="n">
-        <v>84.15679020220469</v>
+        <v>30.433907073934</v>
       </c>
       <c r="K16" t="n">
-        <v>218.3899330701333</v>
+        <v>164.6670499418626</v>
       </c>
       <c r="L16" t="n">
-        <v>409.2216288383613</v>
+        <v>263.9114356143801</v>
       </c>
       <c r="M16" t="n">
-        <v>598.8167744819591</v>
+        <v>468.4173394595717</v>
       </c>
       <c r="N16" t="n">
-        <v>676.5957735341141</v>
+        <v>676.5957735341121</v>
       </c>
       <c r="O16" t="n">
-        <v>862.8204075624664</v>
+        <v>862.8204075624645</v>
       </c>
       <c r="P16" t="n">
-        <v>1017.467262206716</v>
+        <v>1017.467262206714</v>
       </c>
       <c r="Q16" t="n">
-        <v>1081.219273571224</v>
+        <v>1081.219273571223</v>
       </c>
       <c r="R16" t="n">
-        <v>1045.401516617311</v>
+        <v>1045.40151661731</v>
       </c>
       <c r="S16" t="n">
-        <v>956.1300939857003</v>
+        <v>956.1300939856991</v>
       </c>
       <c r="T16" t="n">
-        <v>859.9002076877746</v>
+        <v>859.9002076877734</v>
       </c>
       <c r="U16" t="n">
-        <v>703.7485358493648</v>
+        <v>703.7485358493637</v>
       </c>
       <c r="V16" t="n">
-        <v>582.1111193936925</v>
+        <v>582.1111193936916</v>
       </c>
       <c r="W16" t="n">
-        <v>425.7410211069466</v>
+        <v>425.7410211069458</v>
       </c>
       <c r="X16" t="n">
-        <v>330.7985419591439</v>
+        <v>330.7985419591432</v>
       </c>
       <c r="Y16" t="n">
-        <v>243.0530345658285</v>
+        <v>243.0530345658278</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>872.47848878109</v>
+        <v>872.4784887810899</v>
       </c>
       <c r="C17" t="n">
         <v>743.2932336852418</v>
       </c>
       <c r="D17" t="n">
-        <v>624.8047969230548</v>
+        <v>624.8047969230549</v>
       </c>
       <c r="E17" t="n">
-        <v>478.7938061693741</v>
+        <v>478.7938061693742</v>
       </c>
       <c r="F17" t="n">
-        <v>307.58516322433</v>
+        <v>307.5851632243302</v>
       </c>
       <c r="G17" t="n">
         <v>128.3713956372717</v>
@@ -5513,16 +5513,16 @@
         <v>30.433907073934</v>
       </c>
       <c r="J17" t="n">
-        <v>60.75260108020947</v>
+        <v>60.75260108020957</v>
       </c>
       <c r="K17" t="n">
-        <v>226.9372683326555</v>
+        <v>226.9372683326557</v>
       </c>
       <c r="L17" t="n">
-        <v>485.3806706550283</v>
+        <v>485.3806706550284</v>
       </c>
       <c r="M17" t="n">
-        <v>789.5552979241023</v>
+        <v>789.5552979241024</v>
       </c>
       <c r="N17" t="n">
         <v>1084.019791121359</v>
@@ -5546,16 +5546,16 @@
         <v>1521.6953536967</v>
       </c>
       <c r="U17" t="n">
-        <v>1507.628652472971</v>
+        <v>1507.62865247297</v>
       </c>
       <c r="V17" t="n">
-        <v>1416.343026973964</v>
+        <v>1416.343026973963</v>
       </c>
       <c r="W17" t="n">
-        <v>1303.351633548413</v>
+        <v>1303.351633548412</v>
       </c>
       <c r="X17" t="n">
-        <v>1169.663137131897</v>
+        <v>1169.663137131896</v>
       </c>
       <c r="Y17" t="n">
         <v>1019.301067000648</v>
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>298.4260910090378</v>
+        <v>402.8246274009981</v>
       </c>
       <c r="C18" t="n">
-        <v>123.9730617279108</v>
+        <v>402.8246274009981</v>
       </c>
       <c r="D18" t="n">
-        <v>123.9730617279108</v>
+        <v>402.8246274009981</v>
       </c>
       <c r="E18" t="n">
-        <v>123.9730617279108</v>
+        <v>315.4281899660669</v>
       </c>
       <c r="F18" t="n">
-        <v>30.433907073934</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="G18" t="n">
         <v>30.433907073934</v>
@@ -5592,22 +5592,22 @@
         <v>30.433907073934</v>
       </c>
       <c r="J18" t="n">
-        <v>30.433907073934</v>
+        <v>54.79813383722131</v>
       </c>
       <c r="K18" t="n">
-        <v>198.6970944041448</v>
+        <v>223.0613211674322</v>
       </c>
       <c r="L18" t="n">
-        <v>486.3521110234744</v>
+        <v>510.7163377867618</v>
       </c>
       <c r="M18" t="n">
-        <v>496.4109802811682</v>
+        <v>729.7925734439823</v>
       </c>
       <c r="N18" t="n">
-        <v>873.0305803211014</v>
+        <v>1106.412173483915</v>
       </c>
       <c r="O18" t="n">
-        <v>1185.002115453613</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="P18" t="n">
         <v>1418.383708616427</v>
@@ -5616,28 +5616,28 @@
         <v>1521.6953536967</v>
       </c>
       <c r="R18" t="n">
-        <v>1521.6953536967</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S18" t="n">
-        <v>1353.313582000801</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="T18" t="n">
-        <v>1152.219712613949</v>
+        <v>1236.263966506934</v>
       </c>
       <c r="U18" t="n">
-        <v>924.0139299094407</v>
+        <v>1236.263966506934</v>
       </c>
       <c r="V18" t="n">
-        <v>688.8618216776979</v>
+        <v>1001.111858275191</v>
       </c>
       <c r="W18" t="n">
-        <v>674.4017267940598</v>
+        <v>986.6517633915529</v>
       </c>
       <c r="X18" t="n">
-        <v>674.4017267940598</v>
+        <v>778.8002631860201</v>
       </c>
       <c r="Y18" t="n">
-        <v>466.6414280291058</v>
+        <v>571.0399644210661</v>
       </c>
     </row>
     <row r="19">
@@ -5677,7 +5677,7 @@
         <v>34.2676149194772</v>
       </c>
       <c r="L19" t="n">
-        <v>94.69987566531982</v>
+        <v>94.69987566531984</v>
       </c>
       <c r="M19" t="n">
         <v>168.8063444881259</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>872.4784887810899</v>
+        <v>872.4784887810902</v>
       </c>
       <c r="C20" t="n">
-        <v>743.2932336852418</v>
+        <v>743.2932336852421</v>
       </c>
       <c r="D20" t="n">
-        <v>624.8047969230549</v>
+        <v>624.8047969230552</v>
       </c>
       <c r="E20" t="n">
-        <v>478.7938061693742</v>
+        <v>478.7938061693745</v>
       </c>
       <c r="F20" t="n">
-        <v>307.5851632243302</v>
+        <v>307.5851632243306</v>
       </c>
       <c r="G20" t="n">
-        <v>128.3713956372717</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H20" t="n">
         <v>30.433907073934</v>
@@ -5750,13 +5750,13 @@
         <v>30.433907073934</v>
       </c>
       <c r="J20" t="n">
-        <v>60.75260108020947</v>
+        <v>60.75260108020957</v>
       </c>
       <c r="K20" t="n">
-        <v>226.9372683326555</v>
+        <v>226.9372683326557</v>
       </c>
       <c r="L20" t="n">
-        <v>485.3806706550283</v>
+        <v>485.3806706550284</v>
       </c>
       <c r="M20" t="n">
         <v>789.5552979241023</v>
@@ -5792,7 +5792,7 @@
         <v>1303.351633548413</v>
       </c>
       <c r="X20" t="n">
-        <v>1169.663137131896</v>
+        <v>1169.663137131897</v>
       </c>
       <c r="Y20" t="n">
         <v>1019.301067000648</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>388.4883070617611</v>
+        <v>207.3309423874446</v>
       </c>
       <c r="C21" t="n">
-        <v>388.4883070617611</v>
+        <v>207.3309423874446</v>
       </c>
       <c r="D21" t="n">
-        <v>388.4883070617611</v>
+        <v>58.3965327261933</v>
       </c>
       <c r="E21" t="n">
-        <v>229.2508520563056</v>
+        <v>58.3965327261933</v>
       </c>
       <c r="F21" t="n">
-        <v>82.71629408319055</v>
+        <v>30.433907073934</v>
       </c>
       <c r="G21" t="n">
         <v>30.433907073934</v>
@@ -5829,52 +5829,52 @@
         <v>30.433907073934</v>
       </c>
       <c r="J21" t="n">
-        <v>30.433907073934</v>
+        <v>54.79813383722131</v>
       </c>
       <c r="K21" t="n">
-        <v>30.433907073934</v>
+        <v>223.0613211674322</v>
       </c>
       <c r="L21" t="n">
-        <v>318.0889236932636</v>
+        <v>510.7163377867618</v>
       </c>
       <c r="M21" t="n">
-        <v>694.7085237331969</v>
+        <v>887.335937826695</v>
       </c>
       <c r="N21" t="n">
-        <v>1071.32812377313</v>
+        <v>1106.412173483915</v>
       </c>
       <c r="O21" t="n">
-        <v>1383.299658905642</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="P21" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q21" t="n">
         <v>1521.6953536967</v>
       </c>
       <c r="R21" t="n">
-        <v>1521.6953536967</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S21" t="n">
-        <v>1521.6953536967</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="T21" t="n">
-        <v>1521.6953536967</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="U21" t="n">
-        <v>1293.489570992192</v>
+        <v>1040.77028149338</v>
       </c>
       <c r="V21" t="n">
-        <v>1058.337462760449</v>
+        <v>805.6181732616374</v>
       </c>
       <c r="W21" t="n">
-        <v>804.1001060322478</v>
+        <v>791.1580783779993</v>
       </c>
       <c r="X21" t="n">
-        <v>596.248605826715</v>
+        <v>583.3065781724665</v>
       </c>
       <c r="Y21" t="n">
-        <v>388.4883070617611</v>
+        <v>375.5462794075126</v>
       </c>
     </row>
     <row r="22">
@@ -5914,7 +5914,7 @@
         <v>34.2676149194772</v>
       </c>
       <c r="L22" t="n">
-        <v>94.69987566531982</v>
+        <v>94.69987566531984</v>
       </c>
       <c r="M22" t="n">
         <v>168.8063444881259</v>
@@ -5932,19 +5932,19 @@
         <v>326.6579621681119</v>
       </c>
       <c r="R22" t="n">
-        <v>157.7931334639843</v>
+        <v>326.6579621681119</v>
       </c>
       <c r="S22" t="n">
-        <v>144.4025233717154</v>
+        <v>326.6579621681119</v>
       </c>
       <c r="T22" t="n">
-        <v>144.4025233717154</v>
+        <v>326.6579621681119</v>
       </c>
       <c r="U22" t="n">
-        <v>94.98104162765442</v>
+        <v>277.2364804240509</v>
       </c>
       <c r="V22" t="n">
-        <v>80.07381526633108</v>
+        <v>262.3292540627276</v>
       </c>
       <c r="W22" t="n">
         <v>30.433907073934</v>
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>872.4784887810898</v>
+        <v>872.4784887810902</v>
       </c>
       <c r="C23" t="n">
-        <v>743.2932336852418</v>
+        <v>743.2932336852421</v>
       </c>
       <c r="D23" t="n">
-        <v>624.8047969230549</v>
+        <v>624.8047969230552</v>
       </c>
       <c r="E23" t="n">
         <v>478.7938061693745</v>
@@ -5993,13 +5993,13 @@
         <v>226.9372683326558</v>
       </c>
       <c r="L23" t="n">
-        <v>485.3806706550288</v>
+        <v>485.3806706550286</v>
       </c>
       <c r="M23" t="n">
         <v>789.5552979241027</v>
       </c>
       <c r="N23" t="n">
-        <v>1084.01979112136</v>
+        <v>1084.019791121359</v>
       </c>
       <c r="O23" t="n">
         <v>1316.88662418693</v>
@@ -6020,7 +6020,7 @@
         <v>1521.6953536967</v>
       </c>
       <c r="U23" t="n">
-        <v>1507.62865247297</v>
+        <v>1507.628652472971</v>
       </c>
       <c r="V23" t="n">
         <v>1416.343026973963</v>
@@ -6029,7 +6029,7 @@
         <v>1303.351633548413</v>
       </c>
       <c r="X23" t="n">
-        <v>1169.663137131896</v>
+        <v>1169.663137131897</v>
       </c>
       <c r="Y23" t="n">
         <v>1019.301067000648</v>
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>280.0969810503025</v>
+        <v>492.2810709353301</v>
       </c>
       <c r="C24" t="n">
-        <v>105.6439517691755</v>
+        <v>317.8280416542032</v>
       </c>
       <c r="D24" t="n">
-        <v>30.433907073934</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="E24" t="n">
-        <v>30.433907073934</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="F24" t="n">
-        <v>30.433907073934</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="G24" t="n">
         <v>30.433907073934</v>
@@ -6066,52 +6066,52 @@
         <v>30.433907073934</v>
       </c>
       <c r="J24" t="n">
-        <v>30.433907073934</v>
+        <v>54.79813383722132</v>
       </c>
       <c r="K24" t="n">
-        <v>30.433907073934</v>
+        <v>223.0613211674322</v>
       </c>
       <c r="L24" t="n">
-        <v>318.0889236932636</v>
+        <v>496.4109802811683</v>
       </c>
       <c r="M24" t="n">
-        <v>694.7085237331969</v>
+        <v>496.4109802811683</v>
       </c>
       <c r="N24" t="n">
-        <v>1071.32812377313</v>
+        <v>873.0305803211016</v>
       </c>
       <c r="O24" t="n">
-        <v>1383.299658905642</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P24" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q24" t="n">
         <v>1521.6953536967</v>
       </c>
       <c r="R24" t="n">
-        <v>1521.6953536967</v>
+        <v>1437.357835893787</v>
       </c>
       <c r="S24" t="n">
-        <v>1353.313582000801</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="T24" t="n">
-        <v>1353.313582000801</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="U24" t="n">
-        <v>1353.313582000801</v>
+        <v>839.6764121065274</v>
       </c>
       <c r="V24" t="n">
-        <v>1118.161473769059</v>
+        <v>714.5926660245011</v>
       </c>
       <c r="W24" t="n">
-        <v>863.9241170408573</v>
+        <v>700.132571140863</v>
       </c>
       <c r="X24" t="n">
-        <v>656.0726168353244</v>
+        <v>492.2810709353301</v>
       </c>
       <c r="Y24" t="n">
-        <v>448.3123180703705</v>
+        <v>492.2810709353301</v>
       </c>
     </row>
     <row r="25">
@@ -6172,7 +6172,7 @@
         <v>326.6579621681119</v>
       </c>
       <c r="S25" t="n">
-        <v>144.4025233717154</v>
+        <v>326.6579621681119</v>
       </c>
       <c r="T25" t="n">
         <v>144.4025233717154</v>
@@ -6209,28 +6209,28 @@
         <v>1044.075666754195</v>
       </c>
       <c r="E26" t="n">
-        <v>809.8470710028715</v>
+        <v>809.8470710028719</v>
       </c>
       <c r="F26" t="n">
-        <v>550.4208230601852</v>
+        <v>550.4208230601855</v>
       </c>
       <c r="G26" t="n">
-        <v>282.9894504754844</v>
+        <v>282.9894504754848</v>
       </c>
       <c r="H26" t="n">
-        <v>96.83435691450498</v>
+        <v>96.83435691450495</v>
       </c>
       <c r="I26" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J26" t="n">
         <v>234.1884011210062</v>
       </c>
       <c r="K26" t="n">
-        <v>548.9166880491197</v>
+        <v>548.9166880491193</v>
       </c>
       <c r="L26" t="n">
-        <v>955.9037100471598</v>
+        <v>955.9037100471595</v>
       </c>
       <c r="M26" t="n">
         <v>1408.621956991901</v>
@@ -6245,28 +6245,28 @@
         <v>2542.656213831068</v>
       </c>
       <c r="Q26" t="n">
-        <v>2734.936491467169</v>
+        <v>2734.936491467168</v>
       </c>
       <c r="R26" t="n">
         <v>2766.304371953158</v>
       </c>
       <c r="S26" t="n">
-        <v>2718.278735061233</v>
+        <v>2718.278735061232</v>
       </c>
       <c r="T26" t="n">
-        <v>2646.707063508979</v>
+        <v>2646.707063508978</v>
       </c>
       <c r="U26" t="n">
-        <v>2544.422757287607</v>
+        <v>2544.422757287606</v>
       </c>
       <c r="V26" t="n">
-        <v>2364.919526790957</v>
+        <v>2364.919526790956</v>
       </c>
       <c r="W26" t="n">
         <v>2163.710528367764</v>
       </c>
       <c r="X26" t="n">
-        <v>1941.804426953606</v>
+        <v>1941.804426953605</v>
       </c>
       <c r="Y26" t="n">
         <v>1703.224751824715</v>
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>684.485539360012</v>
+        <v>467.3570110855477</v>
       </c>
       <c r="C27" t="n">
-        <v>510.032510078885</v>
+        <v>292.9039818044207</v>
       </c>
       <c r="D27" t="n">
-        <v>361.0981004176337</v>
+        <v>143.9695721431694</v>
       </c>
       <c r="E27" t="n">
-        <v>201.8606454121782</v>
+        <v>136.2917739846351</v>
       </c>
       <c r="F27" t="n">
-        <v>55.32608743906317</v>
+        <v>136.2917739846351</v>
       </c>
       <c r="G27" t="n">
-        <v>55.32608743906317</v>
+        <v>136.2917739846351</v>
       </c>
       <c r="H27" t="n">
-        <v>55.32608743906317</v>
+        <v>136.2917739846351</v>
       </c>
       <c r="I27" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J27" t="n">
         <v>79.69031420235048</v>
@@ -6330,25 +6330,25 @@
         <v>1985.558603119545</v>
       </c>
       <c r="S27" t="n">
-        <v>1968.736488270567</v>
+        <v>1818.313607280486</v>
       </c>
       <c r="T27" t="n">
-        <v>1919.202275730636</v>
+        <v>1617.219737893633</v>
       </c>
       <c r="U27" t="n">
-        <v>1757.702140310511</v>
+        <v>1389.013955189125</v>
       </c>
       <c r="V27" t="n">
-        <v>1522.550032078768</v>
+        <v>1305.421503804304</v>
       </c>
       <c r="W27" t="n">
-        <v>1268.312675350567</v>
+        <v>1051.184147076102</v>
       </c>
       <c r="X27" t="n">
-        <v>1060.461175145034</v>
+        <v>843.3326468705695</v>
       </c>
       <c r="Y27" t="n">
-        <v>852.70087638008</v>
+        <v>635.5723481056157</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.8889674209086</v>
+        <v>91.32388724474168</v>
       </c>
       <c r="C28" t="n">
-        <v>83.51244133992287</v>
+        <v>73.947361163756</v>
       </c>
       <c r="D28" t="n">
-        <v>83.51244133992287</v>
+        <v>75.36166255139325</v>
       </c>
       <c r="E28" t="n">
-        <v>83.51244133992287</v>
+        <v>78.93565920695725</v>
       </c>
       <c r="F28" t="n">
-        <v>83.51244133992287</v>
+        <v>83.51244133992282</v>
       </c>
       <c r="G28" t="n">
-        <v>65.61152179998153</v>
+        <v>65.6115217999815</v>
       </c>
       <c r="H28" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="I28" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J28" t="n">
-        <v>127.1931552206159</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="K28" t="n">
-        <v>279.5704827418266</v>
+        <v>59.15979528460636</v>
       </c>
       <c r="L28" t="n">
-        <v>488.5463631633367</v>
+        <v>268.1356757061164</v>
       </c>
       <c r="M28" t="n">
-        <v>562.6528319861427</v>
+        <v>490.78576420459</v>
       </c>
       <c r="N28" t="n">
-        <v>640.4318310382977</v>
+        <v>568.564763256745</v>
       </c>
       <c r="O28" t="n">
-        <v>796.7959140141066</v>
+        <v>638.6872141622721</v>
       </c>
       <c r="P28" t="n">
-        <v>821.0433336359706</v>
+        <v>811.4782534598036</v>
       </c>
       <c r="Q28" t="n">
-        <v>821.0433336359706</v>
+        <v>811.4782534598036</v>
       </c>
       <c r="R28" t="n">
-        <v>803.7381617787643</v>
+        <v>794.1730816025972</v>
       </c>
       <c r="S28" t="n">
-        <v>732.9793242438597</v>
+        <v>723.4142440676926</v>
       </c>
       <c r="T28" t="n">
-        <v>655.2620230426405</v>
+        <v>645.6969428664735</v>
       </c>
       <c r="U28" t="n">
-        <v>517.6229363009372</v>
+        <v>508.0578561247702</v>
       </c>
       <c r="V28" t="n">
-        <v>414.4981049419715</v>
+        <v>404.9330247658046</v>
       </c>
       <c r="W28" t="n">
-        <v>276.6405917519321</v>
+        <v>267.0755115757652</v>
       </c>
       <c r="X28" t="n">
-        <v>200.210697700836</v>
+        <v>190.645617524669</v>
       </c>
       <c r="Y28" t="n">
-        <v>130.9777754042271</v>
+        <v>121.4126952280602</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1468.184568607515</v>
+        <v>1468.184568607514</v>
       </c>
       <c r="C29" t="n">
-        <v>1250.781708514024</v>
+        <v>1250.781708514023</v>
       </c>
       <c r="D29" t="n">
-        <v>1044.075666754195</v>
+        <v>1044.075666754194</v>
       </c>
       <c r="E29" t="n">
-        <v>809.8470710028721</v>
+        <v>809.847071002871</v>
       </c>
       <c r="F29" t="n">
-        <v>550.4208230601857</v>
+        <v>550.4208230601846</v>
       </c>
       <c r="G29" t="n">
-        <v>282.9894504754849</v>
+        <v>282.9894504754839</v>
       </c>
       <c r="H29" t="n">
         <v>96.83435691450495</v>
       </c>
       <c r="I29" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J29" t="n">
-        <v>234.1884011210063</v>
+        <v>234.1884011210062</v>
       </c>
       <c r="K29" t="n">
         <v>548.9166880491198</v>
       </c>
       <c r="L29" t="n">
-        <v>955.90371004716</v>
+        <v>955.9037100471601</v>
       </c>
       <c r="M29" t="n">
         <v>1408.621956991901</v>
       </c>
       <c r="N29" t="n">
-        <v>1851.630069864826</v>
+        <v>1851.630069864825</v>
       </c>
       <c r="O29" t="n">
         <v>2233.040522606063</v>
       </c>
       <c r="P29" t="n">
-        <v>2542.656213831068</v>
+        <v>2542.656213831067</v>
       </c>
       <c r="Q29" t="n">
         <v>2734.936491467168</v>
@@ -6488,13 +6488,13 @@
         <v>2766.304371953158</v>
       </c>
       <c r="S29" t="n">
-        <v>2718.278735061233</v>
+        <v>2718.278735061232</v>
       </c>
       <c r="T29" t="n">
-        <v>2646.707063508979</v>
+        <v>2646.707063508978</v>
       </c>
       <c r="U29" t="n">
-        <v>2544.422757287607</v>
+        <v>2544.422757287606</v>
       </c>
       <c r="V29" t="n">
         <v>2364.919526790957</v>
@@ -6503,10 +6503,10 @@
         <v>2163.710528367764</v>
       </c>
       <c r="X29" t="n">
-        <v>1941.804426953606</v>
+        <v>1941.804426953605</v>
       </c>
       <c r="Y29" t="n">
-        <v>1703.224751824715</v>
+        <v>1703.224751824714</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>537.950981386897</v>
+        <v>230.3230605788733</v>
       </c>
       <c r="C30" t="n">
-        <v>363.49795210577</v>
+        <v>207.4296881446675</v>
       </c>
       <c r="D30" t="n">
-        <v>214.5635424445187</v>
+        <v>63.00388559759744</v>
       </c>
       <c r="E30" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="F30" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="G30" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="H30" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="I30" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J30" t="n">
         <v>79.69031420235048</v>
@@ -6564,28 +6564,28 @@
         <v>1985.558603119545</v>
       </c>
       <c r="R30" t="n">
-        <v>1985.558603119545</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S30" t="n">
-        <v>1968.736488270567</v>
+        <v>1732.839313620733</v>
       </c>
       <c r="T30" t="n">
-        <v>1839.373365041904</v>
+        <v>1531.74544423388</v>
       </c>
       <c r="U30" t="n">
-        <v>1611.167582337396</v>
+        <v>1303.539661529372</v>
       </c>
       <c r="V30" t="n">
-        <v>1376.015474105653</v>
+        <v>1068.38755329763</v>
       </c>
       <c r="W30" t="n">
-        <v>1121.778117377452</v>
+        <v>814.1501965694281</v>
       </c>
       <c r="X30" t="n">
-        <v>913.9266171719189</v>
+        <v>606.2986963638953</v>
       </c>
       <c r="Y30" t="n">
-        <v>706.166318406965</v>
+        <v>398.5383975989413</v>
       </c>
     </row>
     <row r="31">
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.31218528794294</v>
+        <v>94.89788390030569</v>
       </c>
       <c r="C31" t="n">
-        <v>78.93565920695725</v>
+        <v>77.52135781932</v>
       </c>
       <c r="D31" t="n">
         <v>78.93565920695725</v>
@@ -6613,58 +6613,58 @@
         <v>65.6115217999815</v>
       </c>
       <c r="H31" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="I31" t="n">
-        <v>56.67269700900452</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J31" t="n">
-        <v>128.5397647905573</v>
+        <v>127.1931552206159</v>
       </c>
       <c r="K31" t="n">
-        <v>145.0927688852445</v>
+        <v>131.0268630661592</v>
       </c>
       <c r="L31" t="n">
-        <v>205.5250296310871</v>
+        <v>340.0027434876692</v>
       </c>
       <c r="M31" t="n">
-        <v>279.6314984538932</v>
+        <v>426.7608167419233</v>
       </c>
       <c r="N31" t="n">
-        <v>357.4104975060482</v>
+        <v>504.5398157940783</v>
       </c>
       <c r="O31" t="n">
-        <v>561.7793161876825</v>
+        <v>708.9086344757127</v>
       </c>
       <c r="P31" t="n">
-        <v>734.570355485214</v>
+        <v>733.1560540975767</v>
       </c>
       <c r="Q31" t="n">
-        <v>816.4665515030048</v>
+        <v>815.0522501153674</v>
       </c>
       <c r="R31" t="n">
-        <v>799.1613796457984</v>
+        <v>797.7470782581611</v>
       </c>
       <c r="S31" t="n">
-        <v>728.4025421108939</v>
+        <v>726.9882407232566</v>
       </c>
       <c r="T31" t="n">
-        <v>650.6852409096748</v>
+        <v>649.2709395220375</v>
       </c>
       <c r="U31" t="n">
-        <v>513.0461541679715</v>
+        <v>511.6318527803342</v>
       </c>
       <c r="V31" t="n">
-        <v>409.9213228090058</v>
+        <v>408.5070214213686</v>
       </c>
       <c r="W31" t="n">
-        <v>272.0638096189664</v>
+        <v>270.6495082313292</v>
       </c>
       <c r="X31" t="n">
-        <v>195.6339155678703</v>
+        <v>194.219614180233</v>
       </c>
       <c r="Y31" t="n">
-        <v>126.4009932712614</v>
+        <v>124.9866918836242</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1468.184568607514</v>
+        <v>1468.184568607513</v>
       </c>
       <c r="C32" t="n">
-        <v>1250.781708514024</v>
+        <v>1250.781708514023</v>
       </c>
       <c r="D32" t="n">
-        <v>1044.075666754195</v>
+        <v>1044.075666754194</v>
       </c>
       <c r="E32" t="n">
-        <v>809.8470710028716</v>
+        <v>809.8470710028714</v>
       </c>
       <c r="F32" t="n">
-        <v>550.4208230601853</v>
+        <v>550.4208230601855</v>
       </c>
       <c r="G32" t="n">
-        <v>282.9894504754845</v>
+        <v>282.9894504754848</v>
       </c>
       <c r="H32" t="n">
-        <v>96.83435691450498</v>
+        <v>96.83435691450492</v>
       </c>
       <c r="I32" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J32" t="n">
         <v>234.1884011210062</v>
       </c>
       <c r="K32" t="n">
-        <v>548.9166880491197</v>
+        <v>548.9166880491191</v>
       </c>
       <c r="L32" t="n">
-        <v>955.9037100471598</v>
+        <v>955.9037100471593</v>
       </c>
       <c r="M32" t="n">
         <v>1408.621956991901</v>
@@ -6719,31 +6719,31 @@
         <v>2542.656213831068</v>
       </c>
       <c r="Q32" t="n">
-        <v>2734.936491467169</v>
+        <v>2734.936491467168</v>
       </c>
       <c r="R32" t="n">
         <v>2766.304371953158</v>
       </c>
       <c r="S32" t="n">
-        <v>2718.278735061233</v>
+        <v>2718.278735061232</v>
       </c>
       <c r="T32" t="n">
         <v>2646.707063508979</v>
       </c>
       <c r="U32" t="n">
-        <v>2544.422757287607</v>
+        <v>2544.422757287606</v>
       </c>
       <c r="V32" t="n">
-        <v>2364.919526790957</v>
+        <v>2364.919526790956</v>
       </c>
       <c r="W32" t="n">
-        <v>2163.710528367764</v>
+        <v>2163.710528367763</v>
       </c>
       <c r="X32" t="n">
-        <v>1941.804426953606</v>
+        <v>1941.804426953604</v>
       </c>
       <c r="Y32" t="n">
-        <v>1703.224751824715</v>
+        <v>1703.224751824714</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>684.485539360012</v>
+        <v>685.0020311196371</v>
       </c>
       <c r="C33" t="n">
-        <v>510.032510078885</v>
+        <v>510.5490018385101</v>
       </c>
       <c r="D33" t="n">
-        <v>361.0981004176337</v>
+        <v>510.5490018385101</v>
       </c>
       <c r="E33" t="n">
-        <v>201.8606454121782</v>
+        <v>502.8712036799758</v>
       </c>
       <c r="F33" t="n">
-        <v>55.32608743906317</v>
+        <v>356.3366457068608</v>
       </c>
       <c r="G33" t="n">
-        <v>55.32608743906317</v>
+        <v>217.876920787843</v>
       </c>
       <c r="H33" t="n">
-        <v>55.32608743906317</v>
+        <v>107.1260452717525</v>
       </c>
       <c r="I33" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J33" t="n">
         <v>79.69031420235048</v>
@@ -6801,28 +6801,28 @@
         <v>1985.558603119545</v>
       </c>
       <c r="R33" t="n">
-        <v>1985.558603119545</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S33" t="n">
-        <v>1883.882478708029</v>
+        <v>1732.839313620733</v>
       </c>
       <c r="T33" t="n">
-        <v>1834.348266168098</v>
+        <v>1531.74544423388</v>
       </c>
       <c r="U33" t="n">
-        <v>1757.702140310511</v>
+        <v>1303.539661529372</v>
       </c>
       <c r="V33" t="n">
-        <v>1522.550032078768</v>
+        <v>1219.947210144551</v>
       </c>
       <c r="W33" t="n">
-        <v>1268.312675350567</v>
+        <v>965.7098534163492</v>
       </c>
       <c r="X33" t="n">
-        <v>1060.461175145034</v>
+        <v>757.8583532108164</v>
       </c>
       <c r="Y33" t="n">
-        <v>852.70087638008</v>
+        <v>701.6577112927838</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.8889674209086</v>
+        <v>92.73818863237881</v>
       </c>
       <c r="C34" t="n">
-        <v>83.51244133992287</v>
+        <v>75.36166255139315</v>
       </c>
       <c r="D34" t="n">
-        <v>83.51244133992287</v>
+        <v>75.36166255139315</v>
       </c>
       <c r="E34" t="n">
-        <v>83.51244133992287</v>
+        <v>78.93565920695718</v>
       </c>
       <c r="F34" t="n">
-        <v>83.51244133992287</v>
+        <v>83.51244133992276</v>
       </c>
       <c r="G34" t="n">
-        <v>65.61152179998153</v>
+        <v>65.61152179998147</v>
       </c>
       <c r="H34" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="I34" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J34" t="n">
-        <v>127.1931552206159</v>
+        <v>127.193155220616</v>
       </c>
       <c r="K34" t="n">
-        <v>279.5704827418266</v>
+        <v>279.5704827418267</v>
       </c>
       <c r="L34" t="n">
-        <v>340.0027434876692</v>
+        <v>432.3908486689808</v>
       </c>
       <c r="M34" t="n">
-        <v>414.1092123104754</v>
+        <v>506.4973174917869</v>
       </c>
       <c r="N34" t="n">
-        <v>510.5308993146814</v>
+        <v>584.2763165439419</v>
       </c>
       <c r="O34" t="n">
-        <v>566.3560983206484</v>
+        <v>640.1015155499088</v>
       </c>
       <c r="P34" t="n">
-        <v>739.1471376181798</v>
+        <v>812.8925548474404</v>
       </c>
       <c r="Q34" t="n">
-        <v>821.0433336359706</v>
+        <v>812.8925548474404</v>
       </c>
       <c r="R34" t="n">
-        <v>803.7381617787643</v>
+        <v>795.5873829902341</v>
       </c>
       <c r="S34" t="n">
-        <v>732.9793242438597</v>
+        <v>724.8285454553296</v>
       </c>
       <c r="T34" t="n">
-        <v>655.2620230426405</v>
+        <v>647.1112442541105</v>
       </c>
       <c r="U34" t="n">
-        <v>517.6229363009372</v>
+        <v>509.4721575124072</v>
       </c>
       <c r="V34" t="n">
-        <v>414.4981049419715</v>
+        <v>406.3473261534415</v>
       </c>
       <c r="W34" t="n">
-        <v>276.6405917519321</v>
+        <v>268.4898129634022</v>
       </c>
       <c r="X34" t="n">
-        <v>200.210697700836</v>
+        <v>192.0599189123061</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.9777754042271</v>
+        <v>122.8269966156973</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>872.4784887810896</v>
+        <v>872.478488781091</v>
       </c>
       <c r="C35" t="n">
-        <v>743.2932336852415</v>
+        <v>743.2932336852429</v>
       </c>
       <c r="D35" t="n">
-        <v>624.8047969230545</v>
+        <v>624.8047969230558</v>
       </c>
       <c r="E35" t="n">
-        <v>478.7938061693738</v>
+        <v>478.793806169375</v>
       </c>
       <c r="F35" t="n">
-        <v>307.5851632243298</v>
+        <v>307.5851632243309</v>
       </c>
       <c r="G35" t="n">
-        <v>128.3713956372717</v>
+        <v>128.3713956372718</v>
       </c>
       <c r="H35" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393403</v>
       </c>
       <c r="I35" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393403</v>
       </c>
       <c r="J35" t="n">
-        <v>60.75260108020957</v>
+        <v>60.75260108020961</v>
       </c>
       <c r="K35" t="n">
         <v>226.9372683326557</v>
@@ -6944,43 +6944,43 @@
         <v>485.3806706550284</v>
       </c>
       <c r="M35" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241039</v>
       </c>
       <c r="N35" t="n">
-        <v>1084.019791121359</v>
+        <v>1084.019791121361</v>
       </c>
       <c r="O35" t="n">
-        <v>1316.886624186929</v>
+        <v>1316.886624186931</v>
       </c>
       <c r="P35" t="n">
-        <v>1477.958695736266</v>
+        <v>1477.958695736268</v>
       </c>
       <c r="Q35" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696701</v>
       </c>
       <c r="R35" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696701</v>
       </c>
       <c r="S35" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696701</v>
       </c>
       <c r="T35" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696701</v>
       </c>
       <c r="U35" t="n">
-        <v>1507.62865247297</v>
+        <v>1507.628652472972</v>
       </c>
       <c r="V35" t="n">
-        <v>1416.343026973963</v>
+        <v>1416.343026973965</v>
       </c>
       <c r="W35" t="n">
-        <v>1303.351633548412</v>
+        <v>1303.351633548414</v>
       </c>
       <c r="X35" t="n">
-        <v>1169.663137131896</v>
+        <v>1169.663137131897</v>
       </c>
       <c r="Y35" t="n">
-        <v>1019.301067000648</v>
+        <v>1019.301067000649</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>683.6308609779433</v>
+        <v>702.6551055480254</v>
       </c>
       <c r="C36" t="n">
-        <v>509.1778316968163</v>
+        <v>528.2020762668984</v>
       </c>
       <c r="D36" t="n">
-        <v>360.243422035565</v>
+        <v>528.2020762668984</v>
       </c>
       <c r="E36" t="n">
-        <v>201.0059670301095</v>
+        <v>368.9646212614429</v>
       </c>
       <c r="F36" t="n">
-        <v>54.47140905699447</v>
+        <v>222.4300632883279</v>
       </c>
       <c r="G36" t="n">
-        <v>30.43390707393399</v>
+        <v>83.97033836931001</v>
       </c>
       <c r="H36" t="n">
-        <v>30.43390707393399</v>
+        <v>83.97033836931001</v>
       </c>
       <c r="I36" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393403</v>
       </c>
       <c r="J36" t="n">
-        <v>54.79813383722131</v>
+        <v>54.79813383722135</v>
       </c>
       <c r="K36" t="n">
-        <v>54.79813383722131</v>
+        <v>144.1078987544178</v>
       </c>
       <c r="L36" t="n">
-        <v>342.4531504565509</v>
+        <v>431.7629153737474</v>
       </c>
       <c r="M36" t="n">
-        <v>719.0727504964841</v>
+        <v>808.3825154136809</v>
       </c>
       <c r="N36" t="n">
-        <v>1095.692350536417</v>
+        <v>1185.002115453615</v>
       </c>
       <c r="O36" t="n">
-        <v>1407.663885668929</v>
+        <v>1185.002115453615</v>
       </c>
       <c r="P36" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616429</v>
       </c>
       <c r="Q36" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696701</v>
       </c>
       <c r="R36" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696701</v>
       </c>
       <c r="S36" t="n">
-        <v>1521.6953536967</v>
+        <v>1353.313582000803</v>
       </c>
       <c r="T36" t="n">
-        <v>1521.6953536967</v>
+        <v>1353.313582000803</v>
       </c>
       <c r="U36" t="n">
-        <v>1521.6953536967</v>
+        <v>1125.107799296295</v>
       </c>
       <c r="V36" t="n">
-        <v>1521.6953536967</v>
+        <v>1125.107799296295</v>
       </c>
       <c r="W36" t="n">
-        <v>1267.457996968498</v>
+        <v>870.8704425680935</v>
       </c>
       <c r="X36" t="n">
-        <v>1059.606496762965</v>
+        <v>870.8704425680935</v>
       </c>
       <c r="Y36" t="n">
-        <v>851.8461979980113</v>
+        <v>870.8704425680935</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393403</v>
       </c>
       <c r="C37" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393403</v>
       </c>
       <c r="D37" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393403</v>
       </c>
       <c r="E37" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393403</v>
       </c>
       <c r="F37" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393403</v>
       </c>
       <c r="G37" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393403</v>
       </c>
       <c r="H37" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393403</v>
       </c>
       <c r="I37" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393403</v>
       </c>
       <c r="J37" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393403</v>
       </c>
       <c r="K37" t="n">
-        <v>34.2676149194772</v>
+        <v>34.26761491947723</v>
       </c>
       <c r="L37" t="n">
-        <v>94.69987566531982</v>
+        <v>94.69987566531987</v>
       </c>
       <c r="M37" t="n">
-        <v>168.8063444881259</v>
+        <v>168.806344488126</v>
       </c>
       <c r="N37" t="n">
         <v>246.5853435402809</v>
@@ -7120,25 +7120,25 @@
         <v>157.7931334639843</v>
       </c>
       <c r="S37" t="n">
-        <v>144.4025233717155</v>
+        <v>157.7931334639843</v>
       </c>
       <c r="T37" t="n">
-        <v>144.4025233717155</v>
+        <v>157.7931334639843</v>
       </c>
       <c r="U37" t="n">
-        <v>94.98104162765448</v>
+        <v>108.3716517199233</v>
       </c>
       <c r="V37" t="n">
-        <v>80.07381526633111</v>
+        <v>93.46442535859985</v>
       </c>
       <c r="W37" t="n">
-        <v>30.43390707393399</v>
+        <v>43.82451716620269</v>
       </c>
       <c r="X37" t="n">
-        <v>30.43390707393399</v>
+        <v>43.82451716620269</v>
       </c>
       <c r="Y37" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393403</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>872.4784887810895</v>
+        <v>872.4784887810902</v>
       </c>
       <c r="C38" t="n">
-        <v>743.2932336852414</v>
+        <v>743.2932336852421</v>
       </c>
       <c r="D38" t="n">
-        <v>624.8047969230545</v>
+        <v>624.8047969230552</v>
       </c>
       <c r="E38" t="n">
-        <v>478.793806169374</v>
+        <v>478.7938061693745</v>
       </c>
       <c r="F38" t="n">
-        <v>307.5851632243298</v>
+        <v>307.5851632243305</v>
       </c>
       <c r="G38" t="n">
         <v>128.3713956372717</v>
@@ -7172,22 +7172,22 @@
         <v>30.433907073934</v>
       </c>
       <c r="J38" t="n">
-        <v>60.75260108020956</v>
+        <v>60.75260108020962</v>
       </c>
       <c r="K38" t="n">
-        <v>226.9372683326557</v>
+        <v>226.9372683326558</v>
       </c>
       <c r="L38" t="n">
         <v>485.3806706550286</v>
       </c>
       <c r="M38" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241027</v>
       </c>
       <c r="N38" t="n">
-        <v>1084.019791121359</v>
+        <v>1084.01979112136</v>
       </c>
       <c r="O38" t="n">
-        <v>1316.886624186929</v>
+        <v>1316.88662418693</v>
       </c>
       <c r="P38" t="n">
         <v>1477.958695736267</v>
@@ -7205,16 +7205,16 @@
         <v>1521.6953536967</v>
       </c>
       <c r="U38" t="n">
-        <v>1507.62865247297</v>
+        <v>1507.628652472971</v>
       </c>
       <c r="V38" t="n">
         <v>1416.343026973963</v>
       </c>
       <c r="W38" t="n">
-        <v>1303.351633548412</v>
+        <v>1303.351633548413</v>
       </c>
       <c r="X38" t="n">
-        <v>1169.663137131896</v>
+        <v>1169.663137131897</v>
       </c>
       <c r="Y38" t="n">
         <v>1019.301067000648</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>336.2059200525046</v>
+        <v>449.3566472567313</v>
       </c>
       <c r="C39" t="n">
-        <v>336.2059200525046</v>
+        <v>449.3566472567313</v>
       </c>
       <c r="D39" t="n">
-        <v>336.2059200525046</v>
+        <v>300.42223759548</v>
       </c>
       <c r="E39" t="n">
-        <v>176.968465047049</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="F39" t="n">
-        <v>30.433907073934</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="G39" t="n">
-        <v>30.433907073934</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="H39" t="n">
         <v>30.433907073934</v>
@@ -7251,52 +7251,52 @@
         <v>30.433907073934</v>
       </c>
       <c r="J39" t="n">
-        <v>30.433907073934</v>
+        <v>54.79813383722132</v>
       </c>
       <c r="K39" t="n">
-        <v>30.433907073934</v>
+        <v>223.0613211674322</v>
       </c>
       <c r="L39" t="n">
-        <v>318.0889236932636</v>
+        <v>510.7163377867618</v>
       </c>
       <c r="M39" t="n">
-        <v>694.7085237331969</v>
+        <v>873.0305803211016</v>
       </c>
       <c r="N39" t="n">
-        <v>1071.32812377313</v>
+        <v>873.0305803211016</v>
       </c>
       <c r="O39" t="n">
-        <v>1383.299658905642</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P39" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q39" t="n">
         <v>1521.6953536967</v>
       </c>
       <c r="R39" t="n">
-        <v>1521.6953536967</v>
+        <v>1504.501774364904</v>
       </c>
       <c r="S39" t="n">
-        <v>1521.6953536967</v>
+        <v>1336.120002669006</v>
       </c>
       <c r="T39" t="n">
-        <v>1320.601484309847</v>
+        <v>1135.026133282153</v>
       </c>
       <c r="U39" t="n">
-        <v>1241.207183982935</v>
+        <v>906.8203505776451</v>
       </c>
       <c r="V39" t="n">
-        <v>1006.055075751193</v>
+        <v>671.6682423459023</v>
       </c>
       <c r="W39" t="n">
-        <v>751.8177190229912</v>
+        <v>657.2081474622642</v>
       </c>
       <c r="X39" t="n">
-        <v>543.9662188174584</v>
+        <v>449.3566472567313</v>
       </c>
       <c r="Y39" t="n">
-        <v>336.2059200525046</v>
+        <v>449.3566472567313</v>
       </c>
     </row>
     <row r="40">
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>199.3700900018409</v>
+        <v>30.433907073934</v>
       </c>
       <c r="C40" t="n">
         <v>30.433907073934</v>
@@ -7336,7 +7336,7 @@
         <v>34.2676149194772</v>
       </c>
       <c r="L40" t="n">
-        <v>94.69987566531982</v>
+        <v>94.69987566531984</v>
       </c>
       <c r="M40" t="n">
         <v>168.8063444881259</v>
@@ -7363,19 +7363,19 @@
         <v>326.6579621681119</v>
       </c>
       <c r="U40" t="n">
-        <v>277.2364804240509</v>
+        <v>94.98104162765442</v>
       </c>
       <c r="V40" t="n">
-        <v>262.3292540627275</v>
+        <v>80.07381526633108</v>
       </c>
       <c r="W40" t="n">
-        <v>212.6893458703304</v>
+        <v>30.433907073934</v>
       </c>
       <c r="X40" t="n">
-        <v>212.6893458703304</v>
+        <v>30.433907073934</v>
       </c>
       <c r="Y40" t="n">
-        <v>212.6893458703304</v>
+        <v>30.433907073934</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.4306445829033</v>
+        <v>976.4306445829034</v>
       </c>
       <c r="C41" t="n">
-        <v>830.5994560416666</v>
+        <v>830.5994560416667</v>
       </c>
       <c r="D41" t="n">
-        <v>695.4650858340913</v>
+        <v>695.4650858340915</v>
       </c>
       <c r="E41" t="n">
-        <v>532.8081616350222</v>
+        <v>532.8081616350225</v>
       </c>
       <c r="F41" t="n">
-        <v>344.9535852445897</v>
+        <v>344.9535852445902</v>
       </c>
       <c r="G41" t="n">
-        <v>149.0938842121431</v>
+        <v>149.093884212143</v>
       </c>
       <c r="H41" t="n">
         <v>34.51046220341689</v>
@@ -7412,22 +7412,22 @@
         <v>64.82915620969246</v>
       </c>
       <c r="K41" t="n">
-        <v>231.0138234621385</v>
+        <v>231.0138234621386</v>
       </c>
       <c r="L41" t="n">
-        <v>489.4572257845113</v>
+        <v>658.0807932294225</v>
       </c>
       <c r="M41" t="n">
-        <v>793.6318530535852</v>
+        <v>962.2554204984965</v>
       </c>
       <c r="N41" t="n">
-        <v>1088.096346250842</v>
+        <v>1256.719913695753</v>
       </c>
       <c r="O41" t="n">
-        <v>1320.963179316412</v>
+        <v>1489.586746761324</v>
       </c>
       <c r="P41" t="n">
-        <v>1482.03525086575</v>
+        <v>1650.658818310661</v>
       </c>
       <c r="Q41" t="n">
         <v>1725.523110170844</v>
@@ -7445,7 +7445,7 @@
         <v>1694.810475501726</v>
       </c>
       <c r="V41" t="n">
-        <v>1586.878916557331</v>
+        <v>1586.87891655733</v>
       </c>
       <c r="W41" t="n">
         <v>1457.241589686391</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>372.7615822381944</v>
+        <v>319.5047450955498</v>
       </c>
       <c r="C42" t="n">
-        <v>372.7615822381944</v>
+        <v>319.5047450955498</v>
       </c>
       <c r="D42" t="n">
-        <v>372.7615822381944</v>
+        <v>319.5047450955498</v>
       </c>
       <c r="E42" t="n">
-        <v>372.7615822381944</v>
+        <v>319.5047450955498</v>
       </c>
       <c r="F42" t="n">
-        <v>226.2270242650794</v>
+        <v>172.9701871224348</v>
       </c>
       <c r="G42" t="n">
-        <v>226.2270242650794</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="H42" t="n">
-        <v>115.4761487489889</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I42" t="n">
         <v>34.51046220341689</v>
       </c>
       <c r="J42" t="n">
-        <v>34.51046220341689</v>
+        <v>58.87468896670421</v>
       </c>
       <c r="K42" t="n">
-        <v>202.7736495336277</v>
+        <v>227.1378762969151</v>
       </c>
       <c r="L42" t="n">
-        <v>490.4286661529574</v>
+        <v>514.7928929162447</v>
       </c>
       <c r="M42" t="n">
-        <v>878.08772437742</v>
+        <v>902.4519511407074</v>
       </c>
       <c r="N42" t="n">
-        <v>1291.713977745013</v>
+        <v>1076.858336795246</v>
       </c>
       <c r="O42" t="n">
-        <v>1603.685512877524</v>
+        <v>1388.829871927757</v>
       </c>
       <c r="P42" t="n">
-        <v>1725.523110170844</v>
+        <v>1622.211465090571</v>
       </c>
       <c r="Q42" t="n">
         <v>1725.523110170844</v>
       </c>
       <c r="R42" t="n">
-        <v>1725.523110170844</v>
+        <v>1641.185592367931</v>
       </c>
       <c r="S42" t="n">
-        <v>1667.5175365151</v>
+        <v>1472.803820672032</v>
       </c>
       <c r="T42" t="n">
-        <v>1466.423667128247</v>
+        <v>1271.709951285179</v>
       </c>
       <c r="U42" t="n">
-        <v>1238.217884423739</v>
+        <v>1043.504168580672</v>
       </c>
       <c r="V42" t="n">
-        <v>1003.065776191997</v>
+        <v>989.3539007942381</v>
       </c>
       <c r="W42" t="n">
-        <v>748.8284194637952</v>
+        <v>735.1165440660366</v>
       </c>
       <c r="X42" t="n">
-        <v>540.9769192582623</v>
+        <v>527.2650438605037</v>
       </c>
       <c r="Y42" t="n">
-        <v>540.9769192582623</v>
+        <v>319.5047450955498</v>
       </c>
     </row>
     <row r="43">
@@ -7573,7 +7573,7 @@
         <v>38.34417004896009</v>
       </c>
       <c r="L43" t="n">
-        <v>98.77643079480271</v>
+        <v>98.77643079480272</v>
       </c>
       <c r="M43" t="n">
         <v>172.8828996176088</v>
@@ -7594,10 +7594,10 @@
         <v>330.7345172975947</v>
       </c>
       <c r="S43" t="n">
-        <v>209.4207309851713</v>
+        <v>330.7345172975947</v>
       </c>
       <c r="T43" t="n">
-        <v>203.275101336206</v>
+        <v>324.5888876486295</v>
       </c>
       <c r="U43" t="n">
         <v>137.2076861467565</v>
@@ -7606,7 +7606,7 @@
         <v>105.6545263400447</v>
       </c>
       <c r="W43" t="n">
-        <v>39.36868470225917</v>
+        <v>39.36868470225914</v>
       </c>
       <c r="X43" t="n">
         <v>34.51046220341689</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>976.4306445829042</v>
+        <v>976.4306445829037</v>
       </c>
       <c r="C44" t="n">
-        <v>830.5994560416675</v>
+        <v>830.5994560416671</v>
       </c>
       <c r="D44" t="n">
-        <v>695.4650858340922</v>
+        <v>695.4650858340917</v>
       </c>
       <c r="E44" t="n">
-        <v>532.8081616350229</v>
+        <v>532.8081616350227</v>
       </c>
       <c r="F44" t="n">
-        <v>344.9535852445904</v>
+        <v>344.9535852445902</v>
       </c>
       <c r="G44" t="n">
         <v>149.093884212143</v>
@@ -7646,22 +7646,22 @@
         <v>34.51046220341689</v>
       </c>
       <c r="J44" t="n">
-        <v>64.82915620969246</v>
+        <v>264.5803575543538</v>
       </c>
       <c r="K44" t="n">
-        <v>231.0138234621385</v>
+        <v>430.7650248067999</v>
       </c>
       <c r="L44" t="n">
-        <v>489.4572257845113</v>
+        <v>689.2084271291726</v>
       </c>
       <c r="M44" t="n">
-        <v>793.6318530535852</v>
+        <v>993.3830543982466</v>
       </c>
       <c r="N44" t="n">
-        <v>1088.096346250842</v>
+        <v>1287.847547595503</v>
       </c>
       <c r="O44" t="n">
-        <v>1320.963179316412</v>
+        <v>1520.714380661074</v>
       </c>
       <c r="P44" t="n">
         <v>1681.786452210411</v>
@@ -7679,7 +7679,7 @@
         <v>1725.523110170844</v>
       </c>
       <c r="U44" t="n">
-        <v>1694.810475501727</v>
+        <v>1694.810475501726</v>
       </c>
       <c r="V44" t="n">
         <v>1586.878916557331</v>
@@ -7688,10 +7688,10 @@
         <v>1457.241589686392</v>
       </c>
       <c r="X44" t="n">
-        <v>1306.907159824488</v>
+        <v>1306.907159824487</v>
       </c>
       <c r="Y44" t="n">
-        <v>1139.899156247851</v>
+        <v>1139.89915624785</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>355.4980494576589</v>
+        <v>416.5502244285227</v>
       </c>
       <c r="C45" t="n">
-        <v>181.0450201765319</v>
+        <v>242.0971951473956</v>
       </c>
       <c r="D45" t="n">
-        <v>181.0450201765319</v>
+        <v>242.0971951473956</v>
       </c>
       <c r="E45" t="n">
         <v>181.0450201765319</v>
@@ -7728,22 +7728,22 @@
         <v>34.51046220341689</v>
       </c>
       <c r="K45" t="n">
-        <v>91.22965366413376</v>
+        <v>202.7736495336277</v>
       </c>
       <c r="L45" t="n">
-        <v>378.8846702834634</v>
+        <v>490.4286661529574</v>
       </c>
       <c r="M45" t="n">
-        <v>766.5437285079261</v>
+        <v>878.08772437742</v>
       </c>
       <c r="N45" t="n">
-        <v>1180.169981875519</v>
+        <v>1291.713977745013</v>
       </c>
       <c r="O45" t="n">
-        <v>1492.14151700803</v>
+        <v>1388.829871927757</v>
       </c>
       <c r="P45" t="n">
-        <v>1725.523110170844</v>
+        <v>1622.211465090571</v>
       </c>
       <c r="Q45" t="n">
         <v>1725.523110170844</v>
@@ -7755,22 +7755,22 @@
         <v>1472.803820672032</v>
       </c>
       <c r="T45" t="n">
-        <v>1271.70995128518</v>
+        <v>1271.709951285179</v>
       </c>
       <c r="U45" t="n">
         <v>1043.504168580672</v>
       </c>
       <c r="V45" t="n">
-        <v>808.3520603489292</v>
+        <v>1031.483388748104</v>
       </c>
       <c r="W45" t="n">
-        <v>731.4736852426809</v>
+        <v>1000.377360419077</v>
       </c>
       <c r="X45" t="n">
-        <v>731.4736852426809</v>
+        <v>792.5258602135447</v>
       </c>
       <c r="Y45" t="n">
-        <v>523.713386477727</v>
+        <v>584.7655614485907</v>
       </c>
     </row>
     <row r="46">
@@ -7810,7 +7810,7 @@
         <v>38.34417004896009</v>
       </c>
       <c r="L46" t="n">
-        <v>98.77643079480271</v>
+        <v>98.77643079480272</v>
       </c>
       <c r="M46" t="n">
         <v>172.8828996176088</v>
@@ -7831,13 +7831,13 @@
         <v>330.7345172975947</v>
       </c>
       <c r="S46" t="n">
-        <v>330.7345172975947</v>
+        <v>209.4207309851712</v>
       </c>
       <c r="T46" t="n">
-        <v>324.5888876486295</v>
+        <v>203.2751013362059</v>
       </c>
       <c r="U46" t="n">
-        <v>258.52147245918</v>
+        <v>137.2076861467565</v>
       </c>
       <c r="V46" t="n">
         <v>105.6545263400447</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720737</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8702,7 +8702,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627455</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8772,19 +8772,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>291.0894135731408</v>
       </c>
       <c r="M12" t="n">
-        <v>454.5540958868388</v>
+        <v>454.5540958868389</v>
       </c>
       <c r="N12" t="n">
-        <v>282.8272049391372</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>78.7395565166168</v>
       </c>
       <c r="P12" t="n">
-        <v>82.72378564719548</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9012,19 +9012,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>164.0355984471881</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N15" t="n">
         <v>441.9619164368269</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>103.3438218370789</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>105.7220906850686</v>
+        <v>105.7220906850685</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720737</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9249,7 +9249,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>84.2907314603343</v>
+        <v>295.4193843891492</v>
       </c>
       <c r="N18" t="n">
         <v>441.9619164368269</v>
@@ -9258,7 +9258,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>82.72378564719547</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720737</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>94.50242152751714</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,16 +9489,16 @@
         <v>454.5540958868388</v>
       </c>
       <c r="N21" t="n">
-        <v>441.9619164368269</v>
+        <v>282.8272049391372</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>222.5174167492746</v>
+        <v>82.72378564719547</v>
       </c>
       <c r="Q21" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>94.50242152751714</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>356.3904892372032</v>
       </c>
       <c r="M24" t="n">
-        <v>454.5540958868389</v>
+        <v>74.13025746266385</v>
       </c>
       <c r="N24" t="n">
         <v>441.961916436827</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>222.5174167492744</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>94.50242152751714</v>
+        <v>184.714305282261</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5540958868388</v>
+        <v>454.5540958868392</v>
       </c>
       <c r="N36" t="n">
-        <v>441.9619164368269</v>
+        <v>441.9619164368273</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>78.7395565166168</v>
       </c>
       <c r="P36" t="n">
-        <v>197.9070866853479</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>94.50242152751714</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>454.5540958868388</v>
+        <v>440.1042398205829</v>
       </c>
       <c r="N39" t="n">
-        <v>441.9619164368269</v>
+        <v>61.53807801265195</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>222.5174167492746</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,16 +11148,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>237.7061443303673</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>205.7920657414583</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,7 +11376,7 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K45" t="n">
-        <v>151.7945341140999</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>176.8364193274699</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.0172406307679</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>233.5562907382949</v>
+        <v>233.556290738295</v>
       </c>
       <c r="D11" t="n">
-        <v>222.9664405879703</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>250.2137690395491</v>
+        <v>250.2137690395492</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>215.5208327727772</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>283.0845181045931</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>202.6210018711096</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>59.42064602642679</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>74.12082214116057</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>196.0356574374222</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>238.0144996457564</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.5213376233409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>236.3135321685916</v>
       </c>
       <c r="C14" t="n">
-        <v>233.556290738295</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>222.9664405879704</v>
       </c>
       <c r="E14" t="n">
-        <v>250.2137690395493</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>275.1594447089989</v>
       </c>
       <c r="G14" t="n">
-        <v>13.44184875786725</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>59.42064602642679</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>196.0356574374223</v>
       </c>
       <c r="W14" t="n">
-        <v>217.5243676847005</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>238.0144996457565</v>
+        <v>238.0144996457564</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.5213376233411</v>
+        <v>254.521337623341</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1102365.331461114</v>
+        <v>1102365.331461113</v>
       </c>
     </row>
     <row r="6">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>327710.5354868154</v>
+        <v>327710.5354868153</v>
       </c>
       <c r="C2" t="n">
-        <v>327710.5354868154</v>
+        <v>327710.5354868153</v>
       </c>
       <c r="D2" t="n">
         <v>327710.5354868153</v>
       </c>
       <c r="E2" t="n">
-        <v>281216.0871326731</v>
+        <v>281216.0871326733</v>
       </c>
       <c r="F2" t="n">
-        <v>281216.0871326734</v>
+        <v>281216.0871326732</v>
       </c>
       <c r="G2" t="n">
         <v>328416.7079457137</v>
       </c>
       <c r="H2" t="n">
-        <v>328416.7079457135</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="I2" t="n">
         <v>328416.7079457134</v>
@@ -26344,13 +26344,13 @@
         <v>328416.7079457131</v>
       </c>
       <c r="M2" t="n">
+        <v>328416.7079457136</v>
+      </c>
+      <c r="N2" t="n">
         <v>328416.7079457135</v>
       </c>
-      <c r="N2" t="n">
-        <v>328416.7079457134</v>
-      </c>
       <c r="O2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457135</v>
       </c>
       <c r="P2" t="n">
         <v>328416.7079457135</v>
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>319206.1449189904</v>
+        <v>319206.1449189903</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>84530.31055472429</v>
+        <v>84530.31055472424</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>116916.0581612106</v>
+        <v>116916.0581612105</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>84530.31055472427</v>
       </c>
       <c r="M3" t="n">
-        <v>87131.09894239518</v>
+        <v>87131.09894239527</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>34584.19673510456</v>
+        <v>34584.19673510451</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26439,13 +26439,13 @@
         <v>386434.3043956758</v>
       </c>
       <c r="J4" t="n">
-        <v>385812.9384819478</v>
+        <v>385812.9384819477</v>
       </c>
       <c r="K4" t="n">
         <v>385812.9384819478</v>
       </c>
       <c r="L4" t="n">
-        <v>385812.9384819478</v>
+        <v>385812.9384819477</v>
       </c>
       <c r="M4" t="n">
         <v>386434.3043956758</v>
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>36923.20336678314</v>
+        <v>36923.20336678313</v>
       </c>
       <c r="F5" t="n">
         <v>36923.20336678313</v>
@@ -26497,10 +26497,10 @@
         <v>57382.03161561136</v>
       </c>
       <c r="L5" t="n">
-        <v>57382.03161561136</v>
+        <v>57382.03161561137</v>
       </c>
       <c r="M5" t="n">
-        <v>45806.17671431452</v>
+        <v>45806.17671431454</v>
       </c>
       <c r="N5" t="n">
         <v>45806.17671431453</v>
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-147566.3145090051</v>
+        <v>-147570.7280868733</v>
       </c>
       <c r="C6" t="n">
-        <v>-147566.3145090051</v>
+        <v>-147570.7280868734</v>
       </c>
       <c r="D6" t="n">
-        <v>-147566.3145090051</v>
+        <v>-147570.7280868733</v>
       </c>
       <c r="E6" t="n">
-        <v>-394231.3732469304</v>
+        <v>-394526.3771270116</v>
       </c>
       <c r="F6" t="n">
-        <v>-75025.22832793961</v>
+        <v>-75320.23220802129</v>
       </c>
       <c r="G6" t="n">
         <v>-188354.0837190009</v>
       </c>
       <c r="H6" t="n">
+        <v>-103823.7731642769</v>
+      </c>
+      <c r="I6" t="n">
         <v>-103823.7731642768</v>
       </c>
-      <c r="I6" t="n">
-        <v>-103823.7731642769</v>
-      </c>
       <c r="J6" t="n">
-        <v>-231694.3203130566</v>
+        <v>-231694.3203130565</v>
       </c>
       <c r="K6" t="n">
-        <v>-114778.2621518457</v>
+        <v>-114778.2621518458</v>
       </c>
       <c r="L6" t="n">
         <v>-199308.5727065703</v>
@@ -26555,10 +26555,10 @@
         <v>-190954.872106672</v>
       </c>
       <c r="N6" t="n">
-        <v>-103823.7731642769</v>
+        <v>-103823.7731642768</v>
       </c>
       <c r="O6" t="n">
-        <v>-139404.0929770031</v>
+        <v>-139404.0929770029</v>
       </c>
       <c r="P6" t="n">
         <v>-104819.8962418984</v>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F2" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="G2" t="n">
         <v>237.3794892261179</v>
       </c>
       <c r="H2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I2" t="n">
         <v>237.3794892261179</v>
@@ -26716,7 +26716,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="M2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.3794892261178</v>
       </c>
       <c r="N2" t="n">
         <v>237.3794892261179</v>
@@ -26811,25 +26811,25 @@
         <v>380.423838424175</v>
       </c>
       <c r="J4" t="n">
-        <v>691.5760929882896</v>
+        <v>691.5760929882895</v>
       </c>
       <c r="K4" t="n">
-        <v>691.5760929882896</v>
+        <v>691.5760929882895</v>
       </c>
       <c r="L4" t="n">
-        <v>691.5760929882896</v>
+        <v>691.5760929882895</v>
       </c>
       <c r="M4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241754</v>
       </c>
       <c r="N4" t="n">
         <v>380.423838424175</v>
       </c>
       <c r="O4" t="n">
-        <v>431.3807775427111</v>
+        <v>431.380777542711</v>
       </c>
       <c r="P4" t="n">
-        <v>431.3807775427111</v>
+        <v>431.380777542711</v>
       </c>
     </row>
   </sheetData>
@@ -26914,22 +26914,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>105.6628881934054</v>
+        <v>105.6628881934053</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.38117208504676</v>
+        <v>44.3811720850467</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>105.6628881934053</v>
       </c>
       <c r="M2" t="n">
-        <v>87.33542894766589</v>
+        <v>87.33542894766583</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.90169797411215</v>
+        <v>27.90169797411212</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>311.1522545641146</v>
+        <v>311.1522545641145</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>69.27158386006028</v>
+        <v>69.27158386006084</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>50.95693911853613</v>
+        <v>50.95693911853601</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>105.6628881934054</v>
+        <v>105.6628881934053</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.38117208504676</v>
+        <v>44.3811720850467</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="C11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="D11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="E11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="G11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="H11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="I11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.359332514826</v>
+        <v>118.3593325148259</v>
       </c>
       <c r="S11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="T11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="U11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="V11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="W11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="X11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="Y11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="D12" t="n">
-        <v>47.70056144870854</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="E12" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="G12" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="H12" t="n">
         <v>109.6433667609296</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,25 +28217,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>131.7166010327127</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>131.7166010327127</v>
+        <v>99.26113280130572</v>
       </c>
       <c r="U12" t="n">
-        <v>131.7166010327127</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>131.7166010327127</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>131.7166010327127</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="C13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="D13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="E13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="G13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="H13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="J13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>116.655229111907</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="M13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="N13" t="n">
-        <v>131.7166010327127</v>
+        <v>116.6552291119087</v>
       </c>
       <c r="O13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="P13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="Q13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="R13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="S13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="T13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="U13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="V13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="W13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="X13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="C14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="D14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="E14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="G14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="H14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="I14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.359332514826</v>
+        <v>118.3593325148259</v>
       </c>
       <c r="S14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="T14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="U14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="V14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="W14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="X14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="C15" t="n">
-        <v>131.7166010327125</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>131.7166010327125</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>131.7166010327125</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="G15" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="H15" t="n">
         <v>109.6433667609296</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,25 +28454,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="T15" t="n">
-        <v>131.7166010327125</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>99.26113280130562</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="Y15" t="n">
-        <v>47.70056144870989</v>
+        <v>131.7166010327126</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="C16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="D16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="E16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="G16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="H16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="J16" t="n">
-        <v>131.7166010327125</v>
+        <v>77.45106251930777</v>
       </c>
       <c r="K16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="L16" t="n">
-        <v>131.7166010327125</v>
+        <v>39.20416659260087</v>
       </c>
       <c r="M16" t="n">
-        <v>116.6552291119108</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="O16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="P16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="Q16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="R16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="S16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="T16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="U16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="V16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="W16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="X16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
     </row>
     <row r="17">
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.359332514826</v>
+        <v>118.3593325148259</v>
       </c>
       <c r="S17" t="n">
         <v>197.5894408014587</v>
@@ -28643,19 +28643,19 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>71.1226073948191</v>
       </c>
       <c r="F18" t="n">
-        <v>52.46544928594686</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>109.6433667609296</v>
@@ -28688,16 +28688,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>83.49414262488439</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -28706,7 +28706,7 @@
         <v>237.3794892261179</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28785,7 +28785,7 @@
         <v>237.3794892261179</v>
       </c>
       <c r="X19" t="n">
-        <v>45.27677098060474</v>
+        <v>45.27677098060471</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="C20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="D20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="E20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="F20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="G20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I20" t="n">
         <v>191.1372470591394</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.359332514826</v>
+        <v>118.3593325148259</v>
       </c>
       <c r="S20" t="n">
         <v>197.5894408014587</v>
@@ -28855,19 +28855,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="Y20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
     </row>
     <row r="21">
@@ -28877,22 +28877,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>117.3862129976472</v>
       </c>
       <c r="G21" t="n">
-        <v>85.31556453066369</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H21" t="n">
         <v>109.6433667609296</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.49414262488439</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>199.0829306929842</v>
@@ -28940,7 +28940,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -29004,22 +29004,22 @@
         <v>67.32062995745122</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>167.1761804170862</v>
       </c>
       <c r="S22" t="n">
-        <v>206.8386054466613</v>
+        <v>220.0953094380075</v>
       </c>
       <c r="T22" t="n">
         <v>226.984188467659</v>
       </c>
       <c r="U22" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V22" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W22" t="n">
-        <v>237.3794892261179</v>
+        <v>56.94660481768534</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.359332514826</v>
+        <v>118.3593325148259</v>
       </c>
       <c r="S23" t="n">
         <v>197.5894408014587</v>
@@ -29114,13 +29114,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>72.98712131634971</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -29129,7 +29129,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>109.6433667609296</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.49414262488439</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>108.9676785282192</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -29244,10 +29244,10 @@
         <v>167.1761804170862</v>
       </c>
       <c r="S25" t="n">
-        <v>39.66242502957505</v>
+        <v>220.0953094380075</v>
       </c>
       <c r="T25" t="n">
-        <v>226.984188467659</v>
+        <v>46.55130405922648</v>
       </c>
       <c r="U25" t="n">
         <v>237.3794892261179</v>
@@ -29299,7 +29299,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="K26" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784515</v>
       </c>
       <c r="L26" t="n">
         <v>150.044060278452</v>
@@ -29314,7 +29314,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="P26" t="n">
-        <v>150.0440602784525</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Q26" t="n">
         <v>150.044060278452</v>
@@ -29360,10 +29360,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.0751276698277</v>
@@ -29372,7 +29372,7 @@
         <v>109.6433667609296</v>
       </c>
       <c r="I27" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29402,16 +29402,16 @@
         <v>83.49414262488439</v>
       </c>
       <c r="S27" t="n">
+        <v>1.12540809827135</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="T27" t="n">
-        <v>150.044060278452</v>
-      </c>
-      <c r="U27" t="n">
-        <v>66.03859081153911</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -29436,13 +29436,13 @@
         <v>150.044060278452</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G28" t="n">
         <v>150.044060278452</v>
@@ -29454,25 +29454,25 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J28" t="n">
-        <v>150.044060278452</v>
+        <v>77.45106251930777</v>
       </c>
       <c r="K28" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>101.5544282523657</v>
+        <v>14.44166858541435</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Q28" t="n">
         <v>67.32062995745122</v>
@@ -29591,13 +29591,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>4.463521043039378</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -29636,13 +29636,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.49414262488439</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>71.01343869660721</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -29673,7 +29673,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -29688,19 +29688,19 @@
         <v>150.044060278452</v>
       </c>
       <c r="I31" t="n">
-        <v>150.044060278452</v>
+        <v>148.6838485916426</v>
       </c>
       <c r="J31" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="K31" t="n">
-        <v>12.84777398903428</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>12.77939841560404</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29709,7 +29709,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="P31" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>150.044060278452</v>
@@ -29773,7 +29773,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="K32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784513</v>
       </c>
       <c r="L32" t="n">
         <v>150.044060278452</v>
@@ -29785,7 +29785,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="O32" t="n">
-        <v>150.0440602784524</v>
+        <v>150.044060278452</v>
       </c>
       <c r="P32" t="n">
         <v>150.044060278452</v>
@@ -29825,28 +29825,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>80.15602968011626</v>
+        <v>28.87407142575383</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,28 +29873,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.49414262488439</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>66.03859081153909</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="U33" t="n">
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29913,10 +29913,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G34" t="n">
         <v>150.044060278452</v>
@@ -29934,13 +29934,13 @@
         <v>150.044060278452</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>93.3213183649611</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>18.83099793136479</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -29949,7 +29949,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="Q34" t="n">
-        <v>150.044060278452</v>
+        <v>67.32062995745122</v>
       </c>
       <c r="R34" t="n">
         <v>150.044060278452</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.3794892261178</v>
       </c>
       <c r="C35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.3794892261178</v>
       </c>
       <c r="D35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.3794892261178</v>
       </c>
       <c r="E35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.3794892261178</v>
       </c>
       <c r="F35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.3794892261178</v>
       </c>
       <c r="G35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.3794892261178</v>
       </c>
       <c r="H35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.3794892261178</v>
       </c>
       <c r="I35" t="n">
         <v>191.1372470591394</v>
@@ -30016,7 +30016,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.359332514826</v>
+        <v>118.3593325148259</v>
       </c>
       <c r="S35" t="n">
         <v>197.5894408014587</v>
@@ -30040,19 +30040,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.3794892261178</v>
       </c>
       <c r="V35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.3794892261178</v>
       </c>
       <c r="W35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.3794892261178</v>
       </c>
       <c r="X35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.3794892261178</v>
       </c>
       <c r="Y35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.3794892261178</v>
       </c>
     </row>
     <row r="36">
@@ -30068,7 +30068,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -30077,13 +30077,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>113.2780007065978</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>109.6433667609296</v>
       </c>
       <c r="I36" t="n">
-        <v>80.15602968011626</v>
+        <v>27.15496269769404</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30113,13 +30113,13 @@
         <v>83.49414262488439</v>
       </c>
       <c r="S36" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -30128,10 +30128,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -30192,25 +30192,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>206.8386054466614</v>
+        <v>220.0953094380075</v>
       </c>
       <c r="T37" t="n">
         <v>226.984188467659</v>
       </c>
       <c r="U37" t="n">
-        <v>237.3794892261179</v>
+        <v>237.3794892261178</v>
       </c>
       <c r="V37" t="n">
-        <v>237.3794892261179</v>
+        <v>237.3794892261178</v>
       </c>
       <c r="W37" t="n">
-        <v>237.3794892261179</v>
+        <v>237.3794892261178</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>205.3279493607488</v>
       </c>
     </row>
     <row r="38">
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.359332514826</v>
+        <v>118.3593325148259</v>
       </c>
       <c r="S38" t="n">
         <v>197.5894408014587</v>
@@ -30305,19 +30305,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H39" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>80.15602968011626</v>
@@ -30347,28 +30347,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.49414262488439</v>
+        <v>66.4724990864064</v>
       </c>
       <c r="S39" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>147.3233675538202</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>166.6459168721327</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -30435,7 +30435,7 @@
         <v>226.984188467659</v>
       </c>
       <c r="U40" t="n">
-        <v>237.3794892261179</v>
+        <v>56.94660481768543</v>
       </c>
       <c r="V40" t="n">
         <v>237.3794892261179</v>
@@ -30487,7 +30487,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>170.3268358029406</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30502,10 +30502,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>201.7688902471331</v>
+        <v>31.44205444419197</v>
       </c>
       <c r="R41" t="n">
-        <v>118.359332514826</v>
+        <v>118.3593325148259</v>
       </c>
       <c r="S41" t="n">
         <v>197.5894408014587</v>
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -30551,13 +30551,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,10 +30584,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>83.49414262488439</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>109.2724360597527</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30596,7 +30596,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>179.1918220408562</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30666,13 +30666,13 @@
         <v>167.1761804170862</v>
       </c>
       <c r="S43" t="n">
-        <v>99.99466098870835</v>
+        <v>220.0953094380075</v>
       </c>
       <c r="T43" t="n">
         <v>220.9000151151833</v>
       </c>
       <c r="U43" t="n">
-        <v>220.9000151151833</v>
+        <v>100.799366665884</v>
       </c>
       <c r="V43" t="n">
         <v>220.9000151151833</v>
@@ -30718,7 +30718,7 @@
         <v>191.1372470591394</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>201.7688902471326</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30736,13 +30736,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>201.768890247133</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.359332514826</v>
+        <v>118.3593325148259</v>
       </c>
       <c r="S44" t="n">
         <v>197.5894408014587</v>
@@ -30782,7 +30782,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>97.20342723424586</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -30833,13 +30833,13 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="W45" t="n">
-        <v>175.5853918057338</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30903,7 +30903,7 @@
         <v>167.1761804170862</v>
       </c>
       <c r="S46" t="n">
-        <v>220.0953094380075</v>
+        <v>99.9946609887082</v>
       </c>
       <c r="T46" t="n">
         <v>220.9000151151833</v>
@@ -30912,7 +30912,7 @@
         <v>220.9000151151833</v>
       </c>
       <c r="V46" t="n">
-        <v>100.799366665884</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="W46" t="n">
         <v>220.9000151151833</v>
@@ -31753,7 +31753,7 @@
         <v>0.5016183778293628</v>
       </c>
       <c r="H11" t="n">
-        <v>5.137199211944963</v>
+        <v>5.137199211944964</v>
       </c>
       <c r="I11" t="n">
         <v>19.33864251126653</v>
@@ -31768,13 +31768,13 @@
         <v>79.15914215930724</v>
       </c>
       <c r="M11" t="n">
-        <v>88.07979798603016</v>
+        <v>88.07979798603017</v>
       </c>
       <c r="N11" t="n">
-        <v>89.50502120203784</v>
+        <v>89.50502120203785</v>
       </c>
       <c r="O11" t="n">
-        <v>84.51705345749711</v>
+        <v>84.51705345749713</v>
       </c>
       <c r="P11" t="n">
         <v>72.13334975483471</v>
@@ -31786,7 +31786,7 @@
         <v>31.50978542632374</v>
       </c>
       <c r="S11" t="n">
-        <v>11.43062878478661</v>
+        <v>11.43062878478662</v>
       </c>
       <c r="T11" t="n">
         <v>2.195834448948037</v>
@@ -31835,25 +31835,25 @@
         <v>2.592077475566879</v>
       </c>
       <c r="I12" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298819</v>
       </c>
       <c r="J12" t="n">
         <v>25.35692139018444</v>
       </c>
       <c r="K12" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684186</v>
       </c>
       <c r="L12" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422268</v>
       </c>
       <c r="M12" t="n">
         <v>68.00377645935447</v>
       </c>
       <c r="N12" t="n">
-        <v>69.80363407068134</v>
+        <v>69.80363407068135</v>
       </c>
       <c r="O12" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782764</v>
       </c>
       <c r="P12" t="n">
         <v>51.25062176713477</v>
@@ -31871,7 +31871,7 @@
         <v>1.081798001837402</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01765720351203596</v>
+        <v>0.01765720351203597</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,7 +31911,7 @@
         <v>0.2250087354648516</v>
       </c>
       <c r="H13" t="n">
-        <v>2.000532211678409</v>
+        <v>2.00053221167841</v>
       </c>
       <c r="I13" t="n">
         <v>6.766626335615721</v>
@@ -31923,7 +31923,7 @@
         <v>26.14192399309821</v>
       </c>
       <c r="L13" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174713</v>
       </c>
       <c r="M13" t="n">
         <v>35.27114205109487</v>
@@ -31935,10 +31935,10 @@
         <v>31.8039619909774</v>
       </c>
       <c r="P13" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749441</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.84141329424316</v>
+        <v>18.84141329424317</v>
       </c>
       <c r="R13" t="n">
         <v>10.11721096008323</v>
@@ -31947,7 +31947,7 @@
         <v>3.921288598964731</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.9614009606225477</v>
       </c>
       <c r="U13" t="n">
         <v>0.01227320375262828</v>
@@ -31990,7 +31990,7 @@
         <v>0.5016183778293628</v>
       </c>
       <c r="H14" t="n">
-        <v>5.137199211944963</v>
+        <v>5.137199211944964</v>
       </c>
       <c r="I14" t="n">
         <v>19.33864251126653</v>
@@ -32005,13 +32005,13 @@
         <v>79.15914215930724</v>
       </c>
       <c r="M14" t="n">
-        <v>88.07979798603016</v>
+        <v>88.07979798603017</v>
       </c>
       <c r="N14" t="n">
-        <v>89.50502120203784</v>
+        <v>89.50502120203785</v>
       </c>
       <c r="O14" t="n">
-        <v>84.51705345749711</v>
+        <v>84.51705345749713</v>
       </c>
       <c r="P14" t="n">
         <v>72.13334975483471</v>
@@ -32023,7 +32023,7 @@
         <v>31.50978542632374</v>
       </c>
       <c r="S14" t="n">
-        <v>11.43062878478661</v>
+        <v>11.43062878478662</v>
       </c>
       <c r="T14" t="n">
         <v>2.195834448948037</v>
@@ -32072,25 +32072,25 @@
         <v>2.592077475566879</v>
       </c>
       <c r="I15" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298819</v>
       </c>
       <c r="J15" t="n">
         <v>25.35692139018444</v>
       </c>
       <c r="K15" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684186</v>
       </c>
       <c r="L15" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422268</v>
       </c>
       <c r="M15" t="n">
         <v>68.00377645935447</v>
       </c>
       <c r="N15" t="n">
-        <v>69.80363407068134</v>
+        <v>69.80363407068135</v>
       </c>
       <c r="O15" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782764</v>
       </c>
       <c r="P15" t="n">
         <v>51.25062176713477</v>
@@ -32108,7 +32108,7 @@
         <v>1.081798001837402</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01765720351203596</v>
+        <v>0.01765720351203597</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,7 +32148,7 @@
         <v>0.2250087354648516</v>
       </c>
       <c r="H16" t="n">
-        <v>2.000532211678409</v>
+        <v>2.00053221167841</v>
       </c>
       <c r="I16" t="n">
         <v>6.766626335615721</v>
@@ -32160,7 +32160,7 @@
         <v>26.14192399309821</v>
       </c>
       <c r="L16" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174713</v>
       </c>
       <c r="M16" t="n">
         <v>35.27114205109487</v>
@@ -32172,10 +32172,10 @@
         <v>31.8039619909774</v>
       </c>
       <c r="P16" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749441</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.84141329424316</v>
+        <v>18.84141329424317</v>
       </c>
       <c r="R16" t="n">
         <v>10.11721096008323</v>
@@ -32184,7 +32184,7 @@
         <v>3.921288598964731</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.9614009606225477</v>
       </c>
       <c r="U16" t="n">
         <v>0.01227320375262828</v>
@@ -32227,7 +32227,7 @@
         <v>0.5016183778293628</v>
       </c>
       <c r="H17" t="n">
-        <v>5.137199211944963</v>
+        <v>5.137199211944964</v>
       </c>
       <c r="I17" t="n">
         <v>19.33864251126653</v>
@@ -32242,13 +32242,13 @@
         <v>79.15914215930724</v>
       </c>
       <c r="M17" t="n">
-        <v>88.07979798603016</v>
+        <v>88.07979798603017</v>
       </c>
       <c r="N17" t="n">
-        <v>89.50502120203784</v>
+        <v>89.50502120203785</v>
       </c>
       <c r="O17" t="n">
-        <v>84.51705345749711</v>
+        <v>84.51705345749713</v>
       </c>
       <c r="P17" t="n">
         <v>72.13334975483471</v>
@@ -32260,7 +32260,7 @@
         <v>31.50978542632374</v>
       </c>
       <c r="S17" t="n">
-        <v>11.43062878478661</v>
+        <v>11.43062878478662</v>
       </c>
       <c r="T17" t="n">
         <v>2.195834448948037</v>
@@ -32309,25 +32309,25 @@
         <v>2.592077475566879</v>
       </c>
       <c r="I18" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298819</v>
       </c>
       <c r="J18" t="n">
         <v>25.35692139018444</v>
       </c>
       <c r="K18" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684186</v>
       </c>
       <c r="L18" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422268</v>
       </c>
       <c r="M18" t="n">
         <v>68.00377645935447</v>
       </c>
       <c r="N18" t="n">
-        <v>69.80363407068134</v>
+        <v>69.80363407068135</v>
       </c>
       <c r="O18" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782764</v>
       </c>
       <c r="P18" t="n">
         <v>51.25062176713477</v>
@@ -32345,7 +32345,7 @@
         <v>1.081798001837402</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01765720351203596</v>
+        <v>0.01765720351203597</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,7 +32385,7 @@
         <v>0.2250087354648516</v>
       </c>
       <c r="H19" t="n">
-        <v>2.000532211678409</v>
+        <v>2.00053221167841</v>
       </c>
       <c r="I19" t="n">
         <v>6.766626335615721</v>
@@ -32397,7 +32397,7 @@
         <v>26.14192399309821</v>
       </c>
       <c r="L19" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174713</v>
       </c>
       <c r="M19" t="n">
         <v>35.27114205109487</v>
@@ -32409,10 +32409,10 @@
         <v>31.8039619909774</v>
       </c>
       <c r="P19" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749441</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.84141329424316</v>
+        <v>18.84141329424317</v>
       </c>
       <c r="R19" t="n">
         <v>10.11721096008323</v>
@@ -32421,7 +32421,7 @@
         <v>3.921288598964731</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.9614009606225477</v>
       </c>
       <c r="U19" t="n">
         <v>0.01227320375262828</v>
@@ -32464,7 +32464,7 @@
         <v>0.5016183778293628</v>
       </c>
       <c r="H20" t="n">
-        <v>5.137199211944963</v>
+        <v>5.137199211944964</v>
       </c>
       <c r="I20" t="n">
         <v>19.33864251126653</v>
@@ -32479,13 +32479,13 @@
         <v>79.15914215930724</v>
       </c>
       <c r="M20" t="n">
-        <v>88.07979798603016</v>
+        <v>88.07979798603017</v>
       </c>
       <c r="N20" t="n">
-        <v>89.50502120203784</v>
+        <v>89.50502120203785</v>
       </c>
       <c r="O20" t="n">
-        <v>84.51705345749711</v>
+        <v>84.51705345749713</v>
       </c>
       <c r="P20" t="n">
         <v>72.13334975483471</v>
@@ -32497,7 +32497,7 @@
         <v>31.50978542632374</v>
       </c>
       <c r="S20" t="n">
-        <v>11.43062878478661</v>
+        <v>11.43062878478662</v>
       </c>
       <c r="T20" t="n">
         <v>2.195834448948037</v>
@@ -32546,25 +32546,25 @@
         <v>2.592077475566879</v>
       </c>
       <c r="I21" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298819</v>
       </c>
       <c r="J21" t="n">
         <v>25.35692139018444</v>
       </c>
       <c r="K21" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684186</v>
       </c>
       <c r="L21" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422268</v>
       </c>
       <c r="M21" t="n">
         <v>68.00377645935447</v>
       </c>
       <c r="N21" t="n">
-        <v>69.80363407068134</v>
+        <v>69.80363407068135</v>
       </c>
       <c r="O21" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782764</v>
       </c>
       <c r="P21" t="n">
         <v>51.25062176713477</v>
@@ -32582,7 +32582,7 @@
         <v>1.081798001837402</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01765720351203596</v>
+        <v>0.01765720351203597</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,7 +32622,7 @@
         <v>0.2250087354648516</v>
       </c>
       <c r="H22" t="n">
-        <v>2.000532211678409</v>
+        <v>2.00053221167841</v>
       </c>
       <c r="I22" t="n">
         <v>6.766626335615721</v>
@@ -32634,7 +32634,7 @@
         <v>26.14192399309821</v>
       </c>
       <c r="L22" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174713</v>
       </c>
       <c r="M22" t="n">
         <v>35.27114205109487</v>
@@ -32646,10 +32646,10 @@
         <v>31.8039619909774</v>
       </c>
       <c r="P22" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749441</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.84141329424316</v>
+        <v>18.84141329424317</v>
       </c>
       <c r="R22" t="n">
         <v>10.11721096008323</v>
@@ -32658,7 +32658,7 @@
         <v>3.921288598964731</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.9614009606225477</v>
       </c>
       <c r="U22" t="n">
         <v>0.01227320375262828</v>
@@ -32701,7 +32701,7 @@
         <v>0.5016183778293628</v>
       </c>
       <c r="H23" t="n">
-        <v>5.137199211944963</v>
+        <v>5.137199211944964</v>
       </c>
       <c r="I23" t="n">
         <v>19.33864251126653</v>
@@ -32716,13 +32716,13 @@
         <v>79.15914215930724</v>
       </c>
       <c r="M23" t="n">
-        <v>88.07979798603016</v>
+        <v>88.07979798603017</v>
       </c>
       <c r="N23" t="n">
-        <v>89.50502120203784</v>
+        <v>89.50502120203785</v>
       </c>
       <c r="O23" t="n">
-        <v>84.51705345749711</v>
+        <v>84.51705345749713</v>
       </c>
       <c r="P23" t="n">
         <v>72.13334975483471</v>
@@ -32734,7 +32734,7 @@
         <v>31.50978542632374</v>
       </c>
       <c r="S23" t="n">
-        <v>11.43062878478661</v>
+        <v>11.43062878478662</v>
       </c>
       <c r="T23" t="n">
         <v>2.195834448948037</v>
@@ -32783,25 +32783,25 @@
         <v>2.592077475566879</v>
       </c>
       <c r="I24" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298819</v>
       </c>
       <c r="J24" t="n">
         <v>25.35692139018444</v>
       </c>
       <c r="K24" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684186</v>
       </c>
       <c r="L24" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422268</v>
       </c>
       <c r="M24" t="n">
         <v>68.00377645935447</v>
       </c>
       <c r="N24" t="n">
-        <v>69.80363407068134</v>
+        <v>69.80363407068135</v>
       </c>
       <c r="O24" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782764</v>
       </c>
       <c r="P24" t="n">
         <v>51.25062176713477</v>
@@ -32819,7 +32819,7 @@
         <v>1.081798001837402</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01765720351203596</v>
+        <v>0.01765720351203597</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,7 +32859,7 @@
         <v>0.2250087354648516</v>
       </c>
       <c r="H25" t="n">
-        <v>2.000532211678409</v>
+        <v>2.00053221167841</v>
       </c>
       <c r="I25" t="n">
         <v>6.766626335615721</v>
@@ -32871,7 +32871,7 @@
         <v>26.14192399309821</v>
       </c>
       <c r="L25" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174713</v>
       </c>
       <c r="M25" t="n">
         <v>35.27114205109487</v>
@@ -32883,10 +32883,10 @@
         <v>31.8039619909774</v>
       </c>
       <c r="P25" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749441</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.84141329424316</v>
+        <v>18.84141329424317</v>
       </c>
       <c r="R25" t="n">
         <v>10.11721096008323</v>
@@ -32895,7 +32895,7 @@
         <v>3.921288598964731</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.9614009606225477</v>
       </c>
       <c r="U25" t="n">
         <v>0.01227320375262828</v>
@@ -32938,7 +32938,7 @@
         <v>0.5016183778293628</v>
       </c>
       <c r="H26" t="n">
-        <v>5.137199211944963</v>
+        <v>5.137199211944964</v>
       </c>
       <c r="I26" t="n">
         <v>19.33864251126653</v>
@@ -32953,13 +32953,13 @@
         <v>79.15914215930724</v>
       </c>
       <c r="M26" t="n">
-        <v>88.07979798603016</v>
+        <v>88.07979798603017</v>
       </c>
       <c r="N26" t="n">
-        <v>89.50502120203784</v>
+        <v>89.50502120203785</v>
       </c>
       <c r="O26" t="n">
-        <v>84.51705345749711</v>
+        <v>84.51705345749713</v>
       </c>
       <c r="P26" t="n">
         <v>72.13334975483471</v>
@@ -32971,7 +32971,7 @@
         <v>31.50978542632374</v>
       </c>
       <c r="S26" t="n">
-        <v>11.43062878478661</v>
+        <v>11.43062878478662</v>
       </c>
       <c r="T26" t="n">
         <v>2.195834448948037</v>
@@ -33020,25 +33020,25 @@
         <v>2.592077475566879</v>
       </c>
       <c r="I27" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298819</v>
       </c>
       <c r="J27" t="n">
         <v>25.35692139018444</v>
       </c>
       <c r="K27" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684186</v>
       </c>
       <c r="L27" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422268</v>
       </c>
       <c r="M27" t="n">
         <v>68.00377645935447</v>
       </c>
       <c r="N27" t="n">
-        <v>69.80363407068134</v>
+        <v>69.80363407068135</v>
       </c>
       <c r="O27" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782764</v>
       </c>
       <c r="P27" t="n">
         <v>51.25062176713477</v>
@@ -33056,7 +33056,7 @@
         <v>1.081798001837402</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01765720351203596</v>
+        <v>0.01765720351203597</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,7 +33096,7 @@
         <v>0.2250087354648516</v>
       </c>
       <c r="H28" t="n">
-        <v>2.000532211678409</v>
+        <v>2.00053221167841</v>
       </c>
       <c r="I28" t="n">
         <v>6.766626335615721</v>
@@ -33108,7 +33108,7 @@
         <v>26.14192399309821</v>
       </c>
       <c r="L28" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174713</v>
       </c>
       <c r="M28" t="n">
         <v>35.27114205109487</v>
@@ -33120,10 +33120,10 @@
         <v>31.8039619909774</v>
       </c>
       <c r="P28" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749441</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.84141329424316</v>
+        <v>18.84141329424317</v>
       </c>
       <c r="R28" t="n">
         <v>10.11721096008323</v>
@@ -33132,7 +33132,7 @@
         <v>3.921288598964731</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.9614009606225477</v>
       </c>
       <c r="U28" t="n">
         <v>0.01227320375262828</v>
@@ -33175,7 +33175,7 @@
         <v>0.5016183778293628</v>
       </c>
       <c r="H29" t="n">
-        <v>5.137199211944963</v>
+        <v>5.137199211944964</v>
       </c>
       <c r="I29" t="n">
         <v>19.33864251126653</v>
@@ -33190,13 +33190,13 @@
         <v>79.15914215930724</v>
       </c>
       <c r="M29" t="n">
-        <v>88.07979798603016</v>
+        <v>88.07979798603017</v>
       </c>
       <c r="N29" t="n">
-        <v>89.50502120203784</v>
+        <v>89.50502120203785</v>
       </c>
       <c r="O29" t="n">
-        <v>84.51705345749711</v>
+        <v>84.51705345749713</v>
       </c>
       <c r="P29" t="n">
         <v>72.13334975483471</v>
@@ -33208,7 +33208,7 @@
         <v>31.50978542632374</v>
       </c>
       <c r="S29" t="n">
-        <v>11.43062878478661</v>
+        <v>11.43062878478662</v>
       </c>
       <c r="T29" t="n">
         <v>2.195834448948037</v>
@@ -33257,25 +33257,25 @@
         <v>2.592077475566879</v>
       </c>
       <c r="I30" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298819</v>
       </c>
       <c r="J30" t="n">
         <v>25.35692139018444</v>
       </c>
       <c r="K30" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684186</v>
       </c>
       <c r="L30" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422268</v>
       </c>
       <c r="M30" t="n">
         <v>68.00377645935447</v>
       </c>
       <c r="N30" t="n">
-        <v>69.80363407068134</v>
+        <v>69.80363407068135</v>
       </c>
       <c r="O30" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782764</v>
       </c>
       <c r="P30" t="n">
         <v>51.25062176713477</v>
@@ -33293,7 +33293,7 @@
         <v>1.081798001837402</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01765720351203596</v>
+        <v>0.01765720351203597</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,7 +33333,7 @@
         <v>0.2250087354648516</v>
       </c>
       <c r="H31" t="n">
-        <v>2.000532211678409</v>
+        <v>2.00053221167841</v>
       </c>
       <c r="I31" t="n">
         <v>6.766626335615721</v>
@@ -33345,7 +33345,7 @@
         <v>26.14192399309821</v>
       </c>
       <c r="L31" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174713</v>
       </c>
       <c r="M31" t="n">
         <v>35.27114205109487</v>
@@ -33357,10 +33357,10 @@
         <v>31.8039619909774</v>
       </c>
       <c r="P31" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749441</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.84141329424316</v>
+        <v>18.84141329424317</v>
       </c>
       <c r="R31" t="n">
         <v>10.11721096008323</v>
@@ -33369,7 +33369,7 @@
         <v>3.921288598964731</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.9614009606225477</v>
       </c>
       <c r="U31" t="n">
         <v>0.01227320375262828</v>
@@ -33412,7 +33412,7 @@
         <v>0.5016183778293628</v>
       </c>
       <c r="H32" t="n">
-        <v>5.137199211944963</v>
+        <v>5.137199211944964</v>
       </c>
       <c r="I32" t="n">
         <v>19.33864251126653</v>
@@ -33427,13 +33427,13 @@
         <v>79.15914215930724</v>
       </c>
       <c r="M32" t="n">
-        <v>88.07979798603016</v>
+        <v>88.07979798603017</v>
       </c>
       <c r="N32" t="n">
-        <v>89.50502120203784</v>
+        <v>89.50502120203785</v>
       </c>
       <c r="O32" t="n">
-        <v>84.51705345749711</v>
+        <v>84.51705345749713</v>
       </c>
       <c r="P32" t="n">
         <v>72.13334975483471</v>
@@ -33445,7 +33445,7 @@
         <v>31.50978542632374</v>
       </c>
       <c r="S32" t="n">
-        <v>11.43062878478661</v>
+        <v>11.43062878478662</v>
       </c>
       <c r="T32" t="n">
         <v>2.195834448948037</v>
@@ -33494,25 +33494,25 @@
         <v>2.592077475566879</v>
       </c>
       <c r="I33" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298819</v>
       </c>
       <c r="J33" t="n">
         <v>25.35692139018444</v>
       </c>
       <c r="K33" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684186</v>
       </c>
       <c r="L33" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422268</v>
       </c>
       <c r="M33" t="n">
         <v>68.00377645935447</v>
       </c>
       <c r="N33" t="n">
-        <v>69.80363407068134</v>
+        <v>69.80363407068135</v>
       </c>
       <c r="O33" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782764</v>
       </c>
       <c r="P33" t="n">
         <v>51.25062176713477</v>
@@ -33530,7 +33530,7 @@
         <v>1.081798001837402</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01765720351203596</v>
+        <v>0.01765720351203597</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,7 +33570,7 @@
         <v>0.2250087354648516</v>
       </c>
       <c r="H34" t="n">
-        <v>2.000532211678409</v>
+        <v>2.00053221167841</v>
       </c>
       <c r="I34" t="n">
         <v>6.766626335615721</v>
@@ -33582,7 +33582,7 @@
         <v>26.14192399309821</v>
       </c>
       <c r="L34" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174713</v>
       </c>
       <c r="M34" t="n">
         <v>35.27114205109487</v>
@@ -33594,10 +33594,10 @@
         <v>31.8039619909774</v>
       </c>
       <c r="P34" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749441</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.84141329424316</v>
+        <v>18.84141329424317</v>
       </c>
       <c r="R34" t="n">
         <v>10.11721096008323</v>
@@ -33606,7 +33606,7 @@
         <v>3.921288598964731</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.9614009606225477</v>
       </c>
       <c r="U34" t="n">
         <v>0.01227320375262828</v>
@@ -33649,7 +33649,7 @@
         <v>0.5016183778293628</v>
       </c>
       <c r="H35" t="n">
-        <v>5.137199211944963</v>
+        <v>5.137199211944964</v>
       </c>
       <c r="I35" t="n">
         <v>19.33864251126653</v>
@@ -33664,13 +33664,13 @@
         <v>79.15914215930724</v>
       </c>
       <c r="M35" t="n">
-        <v>88.07979798603016</v>
+        <v>88.07979798603017</v>
       </c>
       <c r="N35" t="n">
-        <v>89.50502120203784</v>
+        <v>89.50502120203785</v>
       </c>
       <c r="O35" t="n">
-        <v>84.51705345749711</v>
+        <v>84.51705345749713</v>
       </c>
       <c r="P35" t="n">
         <v>72.13334975483471</v>
@@ -33682,7 +33682,7 @@
         <v>31.50978542632374</v>
       </c>
       <c r="S35" t="n">
-        <v>11.43062878478661</v>
+        <v>11.43062878478662</v>
       </c>
       <c r="T35" t="n">
         <v>2.195834448948037</v>
@@ -33731,25 +33731,25 @@
         <v>2.592077475566879</v>
       </c>
       <c r="I36" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298819</v>
       </c>
       <c r="J36" t="n">
         <v>25.35692139018444</v>
       </c>
       <c r="K36" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684186</v>
       </c>
       <c r="L36" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422268</v>
       </c>
       <c r="M36" t="n">
         <v>68.00377645935447</v>
       </c>
       <c r="N36" t="n">
-        <v>69.80363407068134</v>
+        <v>69.80363407068135</v>
       </c>
       <c r="O36" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782764</v>
       </c>
       <c r="P36" t="n">
         <v>51.25062176713477</v>
@@ -33767,7 +33767,7 @@
         <v>1.081798001837402</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01765720351203596</v>
+        <v>0.01765720351203597</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,7 +33807,7 @@
         <v>0.2250087354648516</v>
       </c>
       <c r="H37" t="n">
-        <v>2.000532211678409</v>
+        <v>2.00053221167841</v>
       </c>
       <c r="I37" t="n">
         <v>6.766626335615721</v>
@@ -33819,7 +33819,7 @@
         <v>26.14192399309821</v>
       </c>
       <c r="L37" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174713</v>
       </c>
       <c r="M37" t="n">
         <v>35.27114205109487</v>
@@ -33831,10 +33831,10 @@
         <v>31.8039619909774</v>
       </c>
       <c r="P37" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749441</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.84141329424316</v>
+        <v>18.84141329424317</v>
       </c>
       <c r="R37" t="n">
         <v>10.11721096008323</v>
@@ -33843,7 +33843,7 @@
         <v>3.921288598964731</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.9614009606225477</v>
       </c>
       <c r="U37" t="n">
         <v>0.01227320375262828</v>
@@ -33886,7 +33886,7 @@
         <v>0.5016183778293628</v>
       </c>
       <c r="H38" t="n">
-        <v>5.137199211944963</v>
+        <v>5.137199211944964</v>
       </c>
       <c r="I38" t="n">
         <v>19.33864251126653</v>
@@ -33901,13 +33901,13 @@
         <v>79.15914215930724</v>
       </c>
       <c r="M38" t="n">
-        <v>88.07979798603016</v>
+        <v>88.07979798603017</v>
       </c>
       <c r="N38" t="n">
-        <v>89.50502120203784</v>
+        <v>89.50502120203785</v>
       </c>
       <c r="O38" t="n">
-        <v>84.51705345749711</v>
+        <v>84.51705345749713</v>
       </c>
       <c r="P38" t="n">
         <v>72.13334975483471</v>
@@ -33919,7 +33919,7 @@
         <v>31.50978542632374</v>
       </c>
       <c r="S38" t="n">
-        <v>11.43062878478661</v>
+        <v>11.43062878478662</v>
       </c>
       <c r="T38" t="n">
         <v>2.195834448948037</v>
@@ -33968,25 +33968,25 @@
         <v>2.592077475566879</v>
       </c>
       <c r="I39" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298819</v>
       </c>
       <c r="J39" t="n">
         <v>25.35692139018444</v>
       </c>
       <c r="K39" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684186</v>
       </c>
       <c r="L39" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422268</v>
       </c>
       <c r="M39" t="n">
         <v>68.00377645935447</v>
       </c>
       <c r="N39" t="n">
-        <v>69.80363407068134</v>
+        <v>69.80363407068135</v>
       </c>
       <c r="O39" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782764</v>
       </c>
       <c r="P39" t="n">
         <v>51.25062176713477</v>
@@ -34004,7 +34004,7 @@
         <v>1.081798001837402</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01765720351203596</v>
+        <v>0.01765720351203597</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,7 +34044,7 @@
         <v>0.2250087354648516</v>
       </c>
       <c r="H40" t="n">
-        <v>2.000532211678409</v>
+        <v>2.00053221167841</v>
       </c>
       <c r="I40" t="n">
         <v>6.766626335615721</v>
@@ -34056,7 +34056,7 @@
         <v>26.14192399309821</v>
       </c>
       <c r="L40" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174713</v>
       </c>
       <c r="M40" t="n">
         <v>35.27114205109487</v>
@@ -34068,10 +34068,10 @@
         <v>31.8039619909774</v>
       </c>
       <c r="P40" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749441</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.84141329424316</v>
+        <v>18.84141329424317</v>
       </c>
       <c r="R40" t="n">
         <v>10.11721096008323</v>
@@ -34080,7 +34080,7 @@
         <v>3.921288598964731</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.9614009606225477</v>
       </c>
       <c r="U40" t="n">
         <v>0.01227320375262828</v>
@@ -34123,7 +34123,7 @@
         <v>0.5016183778293628</v>
       </c>
       <c r="H41" t="n">
-        <v>5.137199211944963</v>
+        <v>5.137199211944964</v>
       </c>
       <c r="I41" t="n">
         <v>19.33864251126653</v>
@@ -34138,13 +34138,13 @@
         <v>79.15914215930724</v>
       </c>
       <c r="M41" t="n">
-        <v>88.07979798603016</v>
+        <v>88.07979798603017</v>
       </c>
       <c r="N41" t="n">
-        <v>89.50502120203784</v>
+        <v>89.50502120203785</v>
       </c>
       <c r="O41" t="n">
-        <v>84.51705345749711</v>
+        <v>84.51705345749713</v>
       </c>
       <c r="P41" t="n">
         <v>72.13334975483471</v>
@@ -34156,7 +34156,7 @@
         <v>31.50978542632374</v>
       </c>
       <c r="S41" t="n">
-        <v>11.43062878478661</v>
+        <v>11.43062878478662</v>
       </c>
       <c r="T41" t="n">
         <v>2.195834448948037</v>
@@ -34205,25 +34205,25 @@
         <v>2.592077475566879</v>
       </c>
       <c r="I42" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298819</v>
       </c>
       <c r="J42" t="n">
         <v>25.35692139018444</v>
       </c>
       <c r="K42" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684186</v>
       </c>
       <c r="L42" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422268</v>
       </c>
       <c r="M42" t="n">
         <v>68.00377645935447</v>
       </c>
       <c r="N42" t="n">
-        <v>69.80363407068134</v>
+        <v>69.80363407068135</v>
       </c>
       <c r="O42" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782764</v>
       </c>
       <c r="P42" t="n">
         <v>51.25062176713477</v>
@@ -34241,7 +34241,7 @@
         <v>1.081798001837402</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01765720351203596</v>
+        <v>0.01765720351203597</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,7 +34281,7 @@
         <v>0.2250087354648516</v>
       </c>
       <c r="H43" t="n">
-        <v>2.000532211678409</v>
+        <v>2.00053221167841</v>
       </c>
       <c r="I43" t="n">
         <v>6.766626335615721</v>
@@ -34293,7 +34293,7 @@
         <v>26.14192399309821</v>
       </c>
       <c r="L43" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174713</v>
       </c>
       <c r="M43" t="n">
         <v>35.27114205109487</v>
@@ -34305,10 +34305,10 @@
         <v>31.8039619909774</v>
       </c>
       <c r="P43" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749441</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.84141329424316</v>
+        <v>18.84141329424317</v>
       </c>
       <c r="R43" t="n">
         <v>10.11721096008323</v>
@@ -34317,7 +34317,7 @@
         <v>3.921288598964731</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.9614009606225477</v>
       </c>
       <c r="U43" t="n">
         <v>0.01227320375262828</v>
@@ -34360,7 +34360,7 @@
         <v>0.5016183778293628</v>
       </c>
       <c r="H44" t="n">
-        <v>5.137199211944963</v>
+        <v>5.137199211944964</v>
       </c>
       <c r="I44" t="n">
         <v>19.33864251126653</v>
@@ -34375,13 +34375,13 @@
         <v>79.15914215930724</v>
       </c>
       <c r="M44" t="n">
-        <v>88.07979798603016</v>
+        <v>88.07979798603017</v>
       </c>
       <c r="N44" t="n">
-        <v>89.50502120203784</v>
+        <v>89.50502120203785</v>
       </c>
       <c r="O44" t="n">
-        <v>84.51705345749711</v>
+        <v>84.51705345749713</v>
       </c>
       <c r="P44" t="n">
         <v>72.13334975483471</v>
@@ -34393,7 +34393,7 @@
         <v>31.50978542632374</v>
       </c>
       <c r="S44" t="n">
-        <v>11.43062878478661</v>
+        <v>11.43062878478662</v>
       </c>
       <c r="T44" t="n">
         <v>2.195834448948037</v>
@@ -34442,25 +34442,25 @@
         <v>2.592077475566879</v>
       </c>
       <c r="I45" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298819</v>
       </c>
       <c r="J45" t="n">
         <v>25.35692139018444</v>
       </c>
       <c r="K45" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684186</v>
       </c>
       <c r="L45" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422268</v>
       </c>
       <c r="M45" t="n">
         <v>68.00377645935447</v>
       </c>
       <c r="N45" t="n">
-        <v>69.80363407068134</v>
+        <v>69.80363407068135</v>
       </c>
       <c r="O45" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782764</v>
       </c>
       <c r="P45" t="n">
         <v>51.25062176713477</v>
@@ -34478,7 +34478,7 @@
         <v>1.081798001837402</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01765720351203596</v>
+        <v>0.01765720351203597</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,7 +34518,7 @@
         <v>0.2250087354648516</v>
       </c>
       <c r="H46" t="n">
-        <v>2.000532211678409</v>
+        <v>2.00053221167841</v>
       </c>
       <c r="I46" t="n">
         <v>6.766626335615721</v>
@@ -34530,7 +34530,7 @@
         <v>26.14192399309821</v>
       </c>
       <c r="L46" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174713</v>
       </c>
       <c r="M46" t="n">
         <v>35.27114205109487</v>
@@ -34542,10 +34542,10 @@
         <v>31.8039619909774</v>
       </c>
       <c r="P46" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749441</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.84141329424316</v>
+        <v>18.84141329424317</v>
       </c>
       <c r="R46" t="n">
         <v>10.11721096008323</v>
@@ -34554,7 +34554,7 @@
         <v>3.921288598964731</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.9614009606225477</v>
       </c>
       <c r="U46" t="n">
         <v>0.01227320375262828</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30.6249434406823</v>
+        <v>30.6249434406824</v>
       </c>
       <c r="K11" t="n">
-        <v>167.863300254996</v>
+        <v>167.8633002549961</v>
       </c>
       <c r="L11" t="n">
         <v>261.0539417397704</v>
@@ -35422,13 +35422,13 @@
         <v>297.4388820174311</v>
       </c>
       <c r="O11" t="n">
-        <v>235.2190232985557</v>
+        <v>235.2190232985558</v>
       </c>
       <c r="P11" t="n">
         <v>162.6990621710478</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.17844238427583</v>
+        <v>44.17844238427584</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>24.61033006392658</v>
+        <v>24.61033006392659</v>
       </c>
       <c r="K12" t="n">
         <v>169.9628154850615</v>
       </c>
       <c r="L12" t="n">
-        <v>290.5606228478077</v>
+        <v>210.8096911174893</v>
       </c>
       <c r="M12" t="n">
         <v>380.423838424175</v>
       </c>
       <c r="N12" t="n">
-        <v>221.2891269264853</v>
+        <v>380.423838424175</v>
       </c>
       <c r="O12" t="n">
-        <v>315.1227627601127</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q12" t="n">
-        <v>104.3551970507805</v>
+        <v>104.3551970507806</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.26553851340491</v>
+        <v>54.26553851340482</v>
       </c>
       <c r="K13" t="n">
-        <v>3.872432167215354</v>
+        <v>3.872432167215358</v>
       </c>
       <c r="L13" t="n">
-        <v>177.6979167339702</v>
+        <v>192.7592886547758</v>
       </c>
       <c r="M13" t="n">
-        <v>206.5716200456481</v>
+        <v>206.571620045648</v>
       </c>
       <c r="N13" t="n">
-        <v>210.2812465399399</v>
+        <v>195.2198746191359</v>
       </c>
       <c r="O13" t="n">
         <v>188.1056909377297</v>
       </c>
       <c r="P13" t="n">
-        <v>156.2089440851006</v>
+        <v>156.2089440851005</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.39597107526146</v>
+        <v>64.39597107526137</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>30.6249434406823</v>
+        <v>30.62494344068227</v>
       </c>
       <c r="K14" t="n">
-        <v>167.863300254996</v>
+        <v>167.8633002549961</v>
       </c>
       <c r="L14" t="n">
         <v>261.0539417397704</v>
@@ -35659,13 +35659,13 @@
         <v>297.4388820174311</v>
       </c>
       <c r="O14" t="n">
-        <v>235.2190232985557</v>
+        <v>235.2190232985558</v>
       </c>
       <c r="P14" t="n">
         <v>162.6990621710478</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.17844238427583</v>
+        <v>44.17844238427584</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>24.61033006392658</v>
+        <v>24.61033006392659</v>
       </c>
       <c r="K15" t="n">
         <v>169.9628154850615</v>
@@ -35732,13 +35732,13 @@
         <v>290.5606228478077</v>
       </c>
       <c r="M15" t="n">
-        <v>89.90534098452429</v>
+        <v>380.423838424175</v>
       </c>
       <c r="N15" t="n">
         <v>380.423838424175</v>
       </c>
       <c r="O15" t="n">
-        <v>315.1227627601127</v>
+        <v>24.60426532046207</v>
       </c>
       <c r="P15" t="n">
         <v>235.7389829927417</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.26553851340473</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>135.5890331999279</v>
       </c>
       <c r="L16" t="n">
-        <v>192.7592886547758</v>
+        <v>100.2468542146641</v>
       </c>
       <c r="M16" t="n">
-        <v>191.5102481248463</v>
+        <v>206.571620045648</v>
       </c>
       <c r="N16" t="n">
-        <v>78.56464550722723</v>
+        <v>210.2812465399398</v>
       </c>
       <c r="O16" t="n">
-        <v>188.1056909377296</v>
+        <v>188.1056909377297</v>
       </c>
       <c r="P16" t="n">
-        <v>156.2089440851004</v>
+        <v>156.2089440851005</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.39597107526129</v>
+        <v>64.39597107526137</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>30.6249434406823</v>
+        <v>30.6249434406824</v>
       </c>
       <c r="K17" t="n">
-        <v>167.863300254996</v>
+        <v>167.8633002549961</v>
       </c>
       <c r="L17" t="n">
         <v>261.0539417397704</v>
@@ -35896,13 +35896,13 @@
         <v>297.4388820174311</v>
       </c>
       <c r="O17" t="n">
-        <v>235.2190232985557</v>
+        <v>235.2190232985558</v>
       </c>
       <c r="P17" t="n">
         <v>162.6990621710478</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.17844238427583</v>
+        <v>44.17844238427591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>24.61033006392659</v>
       </c>
       <c r="K18" t="n">
         <v>169.9628154850615</v>
@@ -35969,7 +35969,7 @@
         <v>290.5606228478077</v>
       </c>
       <c r="M18" t="n">
-        <v>10.16047399767045</v>
+        <v>221.2891269264854</v>
       </c>
       <c r="N18" t="n">
         <v>380.423838424175</v>
@@ -35978,10 +35978,10 @@
         <v>315.1227627601127</v>
       </c>
       <c r="P18" t="n">
-        <v>235.7389829927417</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>104.3551970507805</v>
+        <v>104.3551970507806</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.872432167215354</v>
+        <v>3.872432167215358</v>
       </c>
       <c r="L19" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206327</v>
       </c>
       <c r="M19" t="n">
         <v>74.85501901293546</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>30.6249434406823</v>
+        <v>30.6249434406824</v>
       </c>
       <c r="K20" t="n">
-        <v>167.863300254996</v>
+        <v>167.8633002549961</v>
       </c>
       <c r="L20" t="n">
         <v>261.0539417397704</v>
       </c>
       <c r="M20" t="n">
-        <v>307.2470982515899</v>
+        <v>307.2470982515898</v>
       </c>
       <c r="N20" t="n">
         <v>297.4388820174311</v>
       </c>
       <c r="O20" t="n">
-        <v>235.2190232985557</v>
+        <v>235.2190232985558</v>
       </c>
       <c r="P20" t="n">
         <v>162.6990621710478</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.17844238427583</v>
+        <v>44.17844238427584</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>24.61033006392659</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>169.9628154850615</v>
       </c>
       <c r="L21" t="n">
         <v>290.5606228478077</v>
@@ -36209,16 +36209,16 @@
         <v>380.423838424175</v>
       </c>
       <c r="N21" t="n">
-        <v>380.423838424175</v>
+        <v>221.2891269264853</v>
       </c>
       <c r="O21" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P21" t="n">
-        <v>139.7936311020791</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>104.3551970507806</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.872432167215354</v>
+        <v>3.872432167215358</v>
       </c>
       <c r="L22" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206327</v>
       </c>
       <c r="M22" t="n">
         <v>74.85501901293546</v>
@@ -36358,7 +36358,7 @@
         <v>30.6249434406824</v>
       </c>
       <c r="K23" t="n">
-        <v>167.863300254996</v>
+        <v>167.8633002549961</v>
       </c>
       <c r="L23" t="n">
         <v>261.0539417397704</v>
@@ -36370,13 +36370,13 @@
         <v>297.4388820174311</v>
       </c>
       <c r="O23" t="n">
-        <v>235.2190232985557</v>
+        <v>235.2190232985558</v>
       </c>
       <c r="P23" t="n">
         <v>162.6990621710478</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.17844238427583</v>
+        <v>44.17844238427584</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>24.61033006392659</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>169.9628154850615</v>
       </c>
       <c r="L24" t="n">
-        <v>290.5606228478077</v>
+        <v>276.1107667815517</v>
       </c>
       <c r="M24" t="n">
-        <v>380.423838424175</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>380.423838424175</v>
@@ -36452,10 +36452,10 @@
         <v>315.1227627601127</v>
       </c>
       <c r="P24" t="n">
-        <v>139.7936311020789</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>104.3551970507806</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,10 +36516,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.872432167215354</v>
+        <v>3.872432167215358</v>
       </c>
       <c r="L25" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206327</v>
       </c>
       <c r="M25" t="n">
         <v>74.85501901293546</v>
@@ -36595,7 +36595,7 @@
         <v>180.6690037191344</v>
       </c>
       <c r="K26" t="n">
-        <v>317.907360533448</v>
+        <v>317.9073605334476</v>
       </c>
       <c r="L26" t="n">
         <v>411.0980020182224</v>
@@ -36607,16 +36607,16 @@
         <v>447.482942295883</v>
       </c>
       <c r="O26" t="n">
-        <v>385.2630835770077</v>
+        <v>385.2630835770078</v>
       </c>
       <c r="P26" t="n">
-        <v>312.7431224495003</v>
+        <v>312.7431224494998</v>
       </c>
       <c r="Q26" t="n">
         <v>194.2225026627278</v>
       </c>
       <c r="R26" t="n">
-        <v>31.68472776362604</v>
+        <v>31.68472776362607</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>24.61033006392658</v>
+        <v>24.61033006392659</v>
       </c>
       <c r="K27" t="n">
         <v>169.9628154850615</v>
@@ -36692,7 +36692,7 @@
         <v>235.7389829927417</v>
       </c>
       <c r="Q27" t="n">
-        <v>104.3551970507805</v>
+        <v>104.3551970507806</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.428587260239652</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>3.610097631882837</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4.623012255520763</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>72.59299775914421</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>153.9164924456673</v>
+        <v>3.872432167215358</v>
       </c>
       <c r="L28" t="n">
-        <v>211.0867479005152</v>
+        <v>211.0867479005153</v>
       </c>
       <c r="M28" t="n">
-        <v>74.85501901293546</v>
+        <v>224.8990792913875</v>
       </c>
       <c r="N28" t="n">
         <v>78.56464550722723</v>
       </c>
       <c r="O28" t="n">
-        <v>157.9435181573828</v>
+        <v>70.83075849043142</v>
       </c>
       <c r="P28" t="n">
-        <v>24.49234305238789</v>
+        <v>174.5364033308399</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>317.9073605334481</v>
       </c>
       <c r="L29" t="n">
-        <v>411.0980020182224</v>
+        <v>411.0980020182225</v>
       </c>
       <c r="M29" t="n">
         <v>457.2911585300419</v>
@@ -36853,7 +36853,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R29" t="n">
-        <v>31.68472776362606</v>
+        <v>31.68472776362607</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>24.61033006392658</v>
+        <v>24.61033006392659</v>
       </c>
       <c r="K30" t="n">
         <v>169.9628154850615</v>
@@ -36929,7 +36929,7 @@
         <v>235.7389829927417</v>
       </c>
       <c r="Q30" t="n">
-        <v>104.3551970507805</v>
+        <v>104.3551970507806</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36969,7 +36969,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.428587260239652</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -36984,19 +36984,19 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.360211686809445</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>72.59299775914424</v>
       </c>
       <c r="K31" t="n">
-        <v>16.72020615624963</v>
+        <v>3.872432167215358</v>
       </c>
       <c r="L31" t="n">
-        <v>61.04268762206326</v>
+        <v>211.0867479005153</v>
       </c>
       <c r="M31" t="n">
-        <v>74.85501901293546</v>
+        <v>87.63441742853949</v>
       </c>
       <c r="N31" t="n">
         <v>78.56464550722723</v>
@@ -37005,7 +37005,7 @@
         <v>206.4331501834691</v>
       </c>
       <c r="P31" t="n">
-        <v>174.5364033308399</v>
+        <v>24.49234305238789</v>
       </c>
       <c r="Q31" t="n">
         <v>82.72343032100079</v>
@@ -37069,28 +37069,28 @@
         <v>180.6690037191344</v>
       </c>
       <c r="K32" t="n">
-        <v>317.907360533448</v>
+        <v>317.9073605334473</v>
       </c>
       <c r="L32" t="n">
-        <v>411.0980020182224</v>
+        <v>411.0980020182225</v>
       </c>
       <c r="M32" t="n">
         <v>457.2911585300419</v>
       </c>
       <c r="N32" t="n">
-        <v>447.482942295883</v>
+        <v>447.4829422958832</v>
       </c>
       <c r="O32" t="n">
-        <v>385.2630835770081</v>
+        <v>385.2630835770078</v>
       </c>
       <c r="P32" t="n">
-        <v>312.7431224494998</v>
+        <v>312.7431224494999</v>
       </c>
       <c r="Q32" t="n">
-        <v>194.2225026627278</v>
+        <v>194.2225026627279</v>
       </c>
       <c r="R32" t="n">
-        <v>31.68472776362604</v>
+        <v>31.6847277636261</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>24.61033006392658</v>
+        <v>24.61033006392659</v>
       </c>
       <c r="K33" t="n">
         <v>169.9628154850615</v>
@@ -37166,7 +37166,7 @@
         <v>235.7389829927417</v>
       </c>
       <c r="Q33" t="n">
-        <v>104.3551970507805</v>
+        <v>104.3551970507806</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37209,10 +37209,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>3.610097631882866</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>4.623012255520791</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>72.59299775914421</v>
+        <v>72.59299775914427</v>
       </c>
       <c r="K34" t="n">
-        <v>153.9164924456673</v>
+        <v>153.9164924456674</v>
       </c>
       <c r="L34" t="n">
-        <v>61.04268762206326</v>
+        <v>154.3640059870244</v>
       </c>
       <c r="M34" t="n">
         <v>74.85501901293546</v>
       </c>
       <c r="N34" t="n">
-        <v>97.39564343859202</v>
+        <v>78.56464550722723</v>
       </c>
       <c r="O34" t="n">
         <v>56.38908990501707</v>
@@ -37245,7 +37245,7 @@
         <v>174.5364033308399</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.72343032100076</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,25 +37306,25 @@
         <v>30.6249434406824</v>
       </c>
       <c r="K35" t="n">
-        <v>167.863300254996</v>
+        <v>167.8633002549961</v>
       </c>
       <c r="L35" t="n">
         <v>261.0539417397704</v>
       </c>
       <c r="M35" t="n">
-        <v>307.2470982515899</v>
+        <v>307.2470982515914</v>
       </c>
       <c r="N35" t="n">
         <v>297.4388820174311</v>
       </c>
       <c r="O35" t="n">
-        <v>235.2190232985557</v>
+        <v>235.2190232985558</v>
       </c>
       <c r="P35" t="n">
         <v>162.6990621710478</v>
       </c>
       <c r="Q35" t="n">
-        <v>44.17844238427583</v>
+        <v>44.17844238427584</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>24.61033006392658</v>
+        <v>24.61033006392659</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>90.21188375474385</v>
       </c>
       <c r="L36" t="n">
         <v>290.5606228478077</v>
       </c>
       <c r="M36" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241754</v>
       </c>
       <c r="N36" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241754</v>
       </c>
       <c r="O36" t="n">
-        <v>315.1227627601127</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>115.1833010381524</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>104.3551970507806</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.872432167215354</v>
+        <v>3.872432167215358</v>
       </c>
       <c r="L37" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206327</v>
       </c>
       <c r="M37" t="n">
         <v>74.85501901293546</v>
@@ -37543,7 +37543,7 @@
         <v>30.6249434406824</v>
       </c>
       <c r="K38" t="n">
-        <v>167.863300254996</v>
+        <v>167.8633002549961</v>
       </c>
       <c r="L38" t="n">
         <v>261.0539417397704</v>
@@ -37555,13 +37555,13 @@
         <v>297.4388820174311</v>
       </c>
       <c r="O38" t="n">
-        <v>235.2190232985557</v>
+        <v>235.2190232985558</v>
       </c>
       <c r="P38" t="n">
         <v>162.6990621710478</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.17844238427583</v>
+        <v>44.17844238427584</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>24.61033006392659</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>169.9628154850615</v>
       </c>
       <c r="L39" t="n">
         <v>290.5606228478077</v>
       </c>
       <c r="M39" t="n">
-        <v>380.423838424175</v>
+        <v>365.9739823579191</v>
       </c>
       <c r="N39" t="n">
-        <v>380.423838424175</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P39" t="n">
-        <v>139.7936311020791</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>104.3551970507806</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.872432167215354</v>
+        <v>3.872432167215358</v>
       </c>
       <c r="L40" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206327</v>
       </c>
       <c r="M40" t="n">
         <v>74.85501901293546</v>
@@ -37780,10 +37780,10 @@
         <v>30.6249434406824</v>
       </c>
       <c r="K41" t="n">
-        <v>167.863300254996</v>
+        <v>167.8633002549961</v>
       </c>
       <c r="L41" t="n">
-        <v>261.0539417397704</v>
+        <v>431.380777542711</v>
       </c>
       <c r="M41" t="n">
         <v>307.2470982515899</v>
@@ -37792,13 +37792,13 @@
         <v>297.4388820174311</v>
       </c>
       <c r="O41" t="n">
-        <v>235.2190232985557</v>
+        <v>235.2190232985558</v>
       </c>
       <c r="P41" t="n">
         <v>162.6990621710478</v>
       </c>
       <c r="Q41" t="n">
-        <v>245.9473326314089</v>
+        <v>75.62049682846781</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>24.61033006392659</v>
       </c>
       <c r="K42" t="n">
         <v>169.9628154850615</v>
@@ -37868,16 +37868,16 @@
         <v>391.5748062873361</v>
       </c>
       <c r="N42" t="n">
-        <v>417.8042963309016</v>
+        <v>176.1680663177154</v>
       </c>
       <c r="O42" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P42" t="n">
-        <v>123.0682800942628</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>104.3551970507806</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.872432167215354</v>
+        <v>3.872432167215358</v>
       </c>
       <c r="L43" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206327</v>
       </c>
       <c r="M43" t="n">
         <v>74.85501901293546</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>30.6249434406824</v>
+        <v>232.393833687815</v>
       </c>
       <c r="K44" t="n">
-        <v>167.863300254996</v>
+        <v>167.8633002549961</v>
       </c>
       <c r="L44" t="n">
         <v>261.0539417397704</v>
@@ -38029,13 +38029,13 @@
         <v>297.4388820174311</v>
       </c>
       <c r="O44" t="n">
-        <v>235.2190232985557</v>
+        <v>235.2190232985558</v>
       </c>
       <c r="P44" t="n">
-        <v>364.4679524181809</v>
+        <v>162.6990621710478</v>
       </c>
       <c r="Q44" t="n">
-        <v>44.17844238427583</v>
+        <v>44.17844238427584</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>57.2921125865827</v>
+        <v>169.9628154850615</v>
       </c>
       <c r="L45" t="n">
         <v>290.5606228478077</v>
@@ -38108,13 +38108,13 @@
         <v>417.8042963309016</v>
       </c>
       <c r="O45" t="n">
-        <v>315.1227627601127</v>
+        <v>98.0968628108531</v>
       </c>
       <c r="P45" t="n">
         <v>235.7389829927417</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>104.3551970507806</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.872432167215354</v>
+        <v>3.872432167215358</v>
       </c>
       <c r="L46" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206327</v>
       </c>
       <c r="M46" t="n">
         <v>74.85501901293546</v>
